--- a/src/data/covid19-data-responses.xlsx
+++ b/src/data/covid19-data-responses.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghodam2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kulkam3\PycharmProjects\advFilter\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C626978-A670-4090-86C8-241B6CC077BE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAC1BDE-7466-4702-8F64-E9C7E39E9A61}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2235" yWindow="2985" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="404">
   <si>
     <t>ID</t>
   </si>
@@ -1234,6 +1234,9 @@
   </si>
   <si>
     <t>5 - 10</t>
+  </si>
+  <si>
+    <t>Do you have a kid(s)(&lt;5 years) or a senior citizen(s) staying with you in PUNE ?</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1292,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="35">
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -1384,6 +1387,9 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
@@ -1406,32 +1412,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AH113" totalsRowShown="0">
-  <autoFilter ref="A1:AH113" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AI113" totalsRowShown="0">
+  <autoFilter ref="A1:AI113" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="8">
       <filters>
         <filter val="5  - 10"/>
         <filter val="5 - 10"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="21">
+    <filterColumn colId="22">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="34">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Your Name" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Employee ID (e.g. HEDCI-123) (Please put ID number only in this case 123 )" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Your Team" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Work Experience (Approx. in Years)" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Designation" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Age (In Years)" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Gender" dataDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Where do you stay in PUNE ?" dataDxfId="21"/>
+  <tableColumns count="35">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Your Name" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Employee ID (e.g. HEDCI-123) (Please put ID number only in this case 123 )" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Your Team" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Work Experience (Approx. in Years)" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Designation" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Age (In Years)" dataDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Gender" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Where do you stay in PUNE ?" dataDxfId="22"/>
+    <tableColumn id="35" xr3:uid="{E6798864-2316-4106-87A5-6073F085B463}" name="Do you have a kid(s)(&lt;5 years) or a senior citizen(s) staying with you in PUNE ?" dataDxfId="21"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="How many members are currently staying along with you ?" dataDxfId="20"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Did you travel out of PUNE after 1st March ?" dataDxfId="19"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Specify the date of travel ?" dataDxfId="18"/>
@@ -1755,18 +1762,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH113"/>
+  <dimension ref="A1:AI113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="V114" sqref="V114"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M126" sqref="M126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="34" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" customWidth="1"/>
+    <col min="15" max="35" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1807,70 +1816,73 @@
         <v>12</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -1908,39 +1920,37 @@
       <c r="M2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="5"/>
+      <c r="O2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="2">
+      <c r="P2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="2">
         <v>43904</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2" s="2">
+      <c r="T2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="2">
         <v>43975</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="W2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y2" s="5" t="s">
         <v>46</v>
       </c>
@@ -1951,20 +1961,23 @@
         <v>46</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF2" s="5"/>
+      <c r="AD2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG2" s="5"/>
-      <c r="AH2" s="2"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="2"/>
     </row>
-    <row r="3" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11</v>
       </c>
@@ -2002,27 +2015,25 @@
       <c r="M3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="5"/>
+      <c r="O3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="5"/>
+      <c r="P3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T3" s="5"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="5"/>
       <c r="W3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X3" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y3" s="5" t="s">
         <v>46</v>
       </c>
@@ -2033,20 +2044,23 @@
         <v>46</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF3" s="5"/>
+      <c r="AD3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG3" s="5"/>
-      <c r="AH3" s="2"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="2"/>
     </row>
-    <row r="4" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -2084,39 +2098,37 @@
       <c r="M4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="5"/>
+      <c r="O4" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="2">
+      <c r="P4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="2">
         <v>43936</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="S4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T4" s="2">
+      <c r="T4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4" s="2">
         <v>43938</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="V4" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="W4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X4" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y4" s="5" t="s">
         <v>43</v>
       </c>
@@ -2127,26 +2139,29 @@
         <v>43</v>
       </c>
       <c r="AB4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AD4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AE4" s="5"/>
       <c r="AF4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AG4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH4" s="2">
+      <c r="AH4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI4" s="2">
         <v>43933</v>
       </c>
     </row>
-    <row r="5" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>16</v>
       </c>
@@ -2184,27 +2199,25 @@
       <c r="M5" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="5"/>
+      <c r="O5" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="5"/>
+      <c r="P5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T5" s="5"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="5"/>
       <c r="W5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="X5" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y5" s="5" t="s">
         <v>43</v>
       </c>
@@ -2212,27 +2225,30 @@
         <v>43</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AD5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE5" s="5"/>
       <c r="AF5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AG5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH5" s="2"/>
+      <c r="AH5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI5" s="2"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>18</v>
       </c>
@@ -2271,58 +2287,61 @@
         <v>75</v>
       </c>
       <c r="N6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" s="2">
+      <c r="P6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="2">
         <v>43930</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="R6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="S6" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="S6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W6" s="4" t="s">
+      <c r="T6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" s="2"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X6" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X6" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y6" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Z6" s="5" t="s">
         <v>43</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AB6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF6" s="5"/>
+      <c r="AD6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG6" s="5"/>
-      <c r="AH6" s="2"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>22</v>
       </c>
@@ -2360,55 +2379,56 @@
       <c r="M7" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="5"/>
+      <c r="O7" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="5"/>
+      <c r="P7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T7" s="5"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="5"/>
       <c r="W7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="X7" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y7" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC7" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AC7" s="5" t="s">
+      <c r="AD7" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AE7" s="5"/>
       <c r="AF7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AG7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH7" s="2"/>
+      <c r="AH7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>25</v>
       </c>
@@ -2446,51 +2466,52 @@
       <c r="M8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="5"/>
+      <c r="O8" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="5"/>
+      <c r="P8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W8" s="4" t="s">
+      <c r="T8" s="5"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X8" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X8" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y8" s="5" t="s">
         <v>46</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AA8" s="5" t="s">
         <v>43</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF8" s="5"/>
+      <c r="AD8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG8" s="5"/>
-      <c r="AH8" s="2"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="2"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>26</v>
       </c>
@@ -2529,34 +2550,34 @@
         <v>95</v>
       </c>
       <c r="N9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P9" s="2">
+      <c r="P9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" s="2">
         <v>43929</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="R9" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="S9" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T9" s="2"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W9" s="4" t="s">
+      <c r="T9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" s="2"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X9" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X9" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y9" s="5" t="s">
         <v>46</v>
       </c>
@@ -2567,20 +2588,23 @@
         <v>46</v>
       </c>
       <c r="AB9" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF9" s="5"/>
+      <c r="AD9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG9" s="5"/>
-      <c r="AH9" s="2"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="2"/>
     </row>
-    <row r="10" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>28</v>
       </c>
@@ -2618,51 +2642,52 @@
       <c r="M10" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="5"/>
+      <c r="O10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="5"/>
+      <c r="P10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T10" s="5"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="5"/>
       <c r="W10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X10" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X10" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y10" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD10" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG10" s="5"/>
-      <c r="AH10" s="2"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="2"/>
     </row>
-    <row r="11" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>29</v>
       </c>
@@ -2700,53 +2725,54 @@
       <c r="M11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="5"/>
+      <c r="O11" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="5"/>
+      <c r="P11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T11" s="5"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="5"/>
       <c r="W11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X11" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X11" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y11" s="5" t="s">
         <v>46</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AA11" s="5" t="s">
         <v>43</v>
       </c>
       <c r="AB11" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AD11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE11" s="5"/>
       <c r="AF11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG11" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="2"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="2"/>
     </row>
-    <row r="12" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>30</v>
       </c>
@@ -2784,27 +2810,25 @@
       <c r="M12" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="5"/>
+      <c r="O12" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="5"/>
+      <c r="P12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W12" s="4" t="s">
+      <c r="T12" s="5"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X12" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X12" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y12" s="5" t="s">
         <v>46</v>
       </c>
@@ -2812,25 +2836,28 @@
         <v>46</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB12" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AD12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE12" s="5"/>
       <c r="AF12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG12" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="2"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="2"/>
     </row>
-    <row r="13" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>32</v>
       </c>
@@ -2868,51 +2895,52 @@
       <c r="M13" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="5"/>
+      <c r="O13" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="5"/>
+      <c r="P13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T13" s="5"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="5"/>
       <c r="W13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X13" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="X13" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y13" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA13" s="5" t="s">
         <v>46</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF13" s="5"/>
+      <c r="AD13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG13" s="5"/>
-      <c r="AH13" s="2"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="2"/>
     </row>
-    <row r="14" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>38</v>
       </c>
@@ -2950,39 +2978,37 @@
       <c r="M14" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="5"/>
+      <c r="O14" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P14" s="2">
+      <c r="P14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" s="2">
         <v>43931</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="R14" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="S14" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="S14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T14" s="2">
+      <c r="T14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U14" s="2">
         <v>43930</v>
       </c>
-      <c r="U14" s="5" t="s">
+      <c r="V14" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="V14" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="W14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X14" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X14" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y14" s="5" t="s">
         <v>43</v>
       </c>
@@ -2993,26 +3019,29 @@
         <v>43</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AD14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE14" s="5"/>
       <c r="AF14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AG14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH14" s="2">
+      <c r="AH14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI14" s="2">
         <v>43937</v>
       </c>
     </row>
-    <row r="15" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>41</v>
       </c>
@@ -3050,27 +3079,25 @@
       <c r="M15" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N15" s="5"/>
+      <c r="O15" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="5"/>
+      <c r="P15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T15" s="5"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="5"/>
       <c r="W15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X15" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X15" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y15" s="5" t="s">
         <v>43</v>
       </c>
@@ -3081,24 +3108,27 @@
         <v>43</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AD15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE15" s="5"/>
       <c r="AF15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AG15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH15" s="2"/>
+      <c r="AH15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI15" s="2"/>
     </row>
-    <row r="16" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>44</v>
       </c>
@@ -3136,27 +3166,25 @@
       <c r="M16" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" s="5"/>
+      <c r="O16" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="5"/>
+      <c r="P16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T16" s="5"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="5"/>
       <c r="W16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X16" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X16" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y16" s="5" t="s">
         <v>46</v>
       </c>
@@ -3164,25 +3192,28 @@
         <v>46</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AD16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE16" s="5"/>
       <c r="AF16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG16" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="2"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="2"/>
     </row>
-    <row r="17" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>45</v>
       </c>
@@ -3220,39 +3251,37 @@
       <c r="M17" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="5"/>
+      <c r="O17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P17" s="2">
+      <c r="P17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q17" s="2">
         <v>43938</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="R17" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="R17" s="5" t="s">
+      <c r="S17" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="S17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T17" s="2">
+      <c r="T17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U17" s="2">
         <v>43946</v>
       </c>
-      <c r="U17" s="5" t="s">
+      <c r="V17" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="V17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W17" s="4" t="s">
+      <c r="W17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X17" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X17" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y17" s="5" t="s">
         <v>43</v>
       </c>
@@ -3263,26 +3292,29 @@
         <v>43</v>
       </c>
       <c r="AB17" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AD17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE17" s="5"/>
       <c r="AF17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AG17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH17" s="2">
+      <c r="AH17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI17" s="2">
         <v>43938</v>
       </c>
     </row>
-    <row r="18" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>46</v>
       </c>
@@ -3320,53 +3352,54 @@
       <c r="M18" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="5"/>
+      <c r="O18" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="5"/>
+      <c r="P18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T18" s="5"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="5"/>
       <c r="W18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X18" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X18" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y18" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z18" s="5" t="s">
         <v>46</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB18" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AD18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE18" s="5"/>
       <c r="AF18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG18" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="2"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="2"/>
     </row>
-    <row r="19" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>47</v>
       </c>
@@ -3404,65 +3437,66 @@
       <c r="M19" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="N19" s="5"/>
+      <c r="O19" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P19" s="2">
+      <c r="P19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q19" s="2">
         <v>43937</v>
       </c>
-      <c r="Q19" s="5" t="s">
+      <c r="R19" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="S19" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="S19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T19" s="2"/>
-      <c r="U19" s="5"/>
+      <c r="T19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U19" s="2"/>
       <c r="V19" s="5"/>
-      <c r="W19" s="4" t="s">
+      <c r="W19" s="5"/>
+      <c r="X19" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X19" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y19" s="5" t="s">
         <v>43</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC19" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AC19" s="5" t="s">
+      <c r="AD19" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AD19" s="5" t="s">
+      <c r="AE19" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="AE19" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="AF19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AG19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH19" s="2">
+      <c r="AH19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI19" s="2">
         <v>43951</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>48</v>
       </c>
@@ -3501,34 +3535,34 @@
         <v>148</v>
       </c>
       <c r="N20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P20" s="2">
+      <c r="P20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q20" s="2">
         <v>43911</v>
       </c>
-      <c r="Q20" s="5" t="s">
+      <c r="R20" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="R20" s="5" t="s">
+      <c r="S20" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="S20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T20" s="2"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U20" s="2"/>
+      <c r="V20" s="5"/>
       <c r="W20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X20" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="X20" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y20" s="5" t="s">
         <v>46</v>
       </c>
@@ -3539,20 +3573,23 @@
         <v>46</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF20" s="5"/>
+      <c r="AD20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG20" s="5"/>
-      <c r="AH20" s="2"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="2"/>
     </row>
-    <row r="21" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>50</v>
       </c>
@@ -3590,51 +3627,52 @@
       <c r="M21" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="N21" s="5"/>
+      <c r="O21" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="5"/>
+      <c r="P21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T21" s="5"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="5"/>
       <c r="W21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X21" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X21" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y21" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA21" s="5" t="s">
         <v>46</v>
       </c>
       <c r="AB21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC21" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AC21" s="5" t="s">
+      <c r="AD21" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG21" s="5"/>
-      <c r="AH21" s="2"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="2"/>
     </row>
-    <row r="22" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>51</v>
       </c>
@@ -3672,55 +3710,56 @@
       <c r="M22" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="N22" s="5"/>
+      <c r="O22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="5"/>
+      <c r="P22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T22" s="5"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="5"/>
       <c r="W22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="X22" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y22" s="5" t="s">
         <v>46</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AB22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC22" s="5" t="s">
+      <c r="AD22" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AE22" s="5"/>
       <c r="AF22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AG22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH22" s="2"/>
+      <c r="AH22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI22" s="2"/>
     </row>
-    <row r="23" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>52</v>
       </c>
@@ -3758,27 +3797,25 @@
       <c r="M23" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="N23" s="5"/>
+      <c r="O23" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="5"/>
+      <c r="P23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T23" s="5"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="5"/>
       <c r="W23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X23" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="X23" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y23" s="5" t="s">
         <v>46</v>
       </c>
@@ -3789,26 +3826,29 @@
         <v>46</v>
       </c>
       <c r="AB23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC23" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AC23" s="5" t="s">
+      <c r="AD23" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AE23" s="5"/>
       <c r="AF23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG23" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AG23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH23" s="2">
+      <c r="AH23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI23" s="2">
         <v>43928</v>
       </c>
     </row>
-    <row r="24" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>55</v>
       </c>
@@ -3846,51 +3886,52 @@
       <c r="M24" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="N24" s="5"/>
+      <c r="O24" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="5"/>
+      <c r="P24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W24" s="4" t="s">
+      <c r="T24" s="5"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X24" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X24" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y24" s="5" t="s">
         <v>46</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AA24" s="5" t="s">
         <v>43</v>
       </c>
       <c r="AB24" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD24" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG24" s="5"/>
-      <c r="AH24" s="2"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="2"/>
     </row>
-    <row r="25" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>58</v>
       </c>
@@ -3928,29 +3969,27 @@
       <c r="M25" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="N25" s="5"/>
+      <c r="O25" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O25" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="5"/>
+      <c r="P25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W25" s="4" t="s">
+      <c r="T25" s="5"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X25" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X25" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y25" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>46</v>
@@ -3959,22 +3998,25 @@
         <v>46</v>
       </c>
       <c r="AB25" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AD25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE25" s="5"/>
       <c r="AF25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG25" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="2"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="2"/>
     </row>
-    <row r="26" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>60</v>
       </c>
@@ -4012,27 +4054,25 @@
       <c r="M26" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="N26" s="5" t="s">
+      <c r="N26" s="5"/>
+      <c r="O26" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O26" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="5"/>
+      <c r="P26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W26" s="4" t="s">
+      <c r="T26" s="5"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X26" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X26" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y26" s="5" t="s">
         <v>46</v>
       </c>
@@ -4040,23 +4080,26 @@
         <v>46</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB26" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC26" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF26" s="5"/>
+      <c r="AD26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG26" s="5"/>
-      <c r="AH26" s="2"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="2"/>
     </row>
-    <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>63</v>
       </c>
@@ -4094,27 +4137,25 @@
       <c r="M27" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="5"/>
+      <c r="O27" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="5"/>
+      <c r="P27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T27" s="5"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="5"/>
       <c r="W27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X27" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="X27" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y27" s="5" t="s">
         <v>46</v>
       </c>
@@ -4125,20 +4166,23 @@
         <v>46</v>
       </c>
       <c r="AB27" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF27" s="5"/>
+      <c r="AD27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG27" s="5"/>
-      <c r="AH27" s="2"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>64</v>
       </c>
@@ -4176,27 +4220,25 @@
       <c r="M28" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="N28" s="5" t="s">
+      <c r="N28" s="5"/>
+      <c r="O28" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O28" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="5"/>
+      <c r="P28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T28" s="5"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="5"/>
       <c r="W28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X28" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X28" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y28" s="5" t="s">
         <v>46</v>
       </c>
@@ -4207,20 +4249,23 @@
         <v>46</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD28" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG28" s="5"/>
-      <c r="AH28" s="2"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="2"/>
     </row>
-    <row r="29" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>68</v>
       </c>
@@ -4258,27 +4303,25 @@
       <c r="M29" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="N29" s="5" t="s">
+      <c r="N29" s="5"/>
+      <c r="O29" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O29" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="5"/>
+      <c r="P29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W29" s="4" t="s">
+      <c r="T29" s="5"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X29" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X29" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y29" s="5" t="s">
         <v>46</v>
       </c>
@@ -4289,26 +4332,29 @@
         <v>46</v>
       </c>
       <c r="AB29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC29" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="AC29" s="5" t="s">
+      <c r="AD29" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AE29" s="5"/>
       <c r="AF29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG29" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AG29" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH29" s="2">
+      <c r="AH29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI29" s="2">
         <v>43943</v>
       </c>
     </row>
-    <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>69</v>
       </c>
@@ -4346,57 +4392,58 @@
       <c r="M30" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="N30" s="5" t="s">
+      <c r="N30" s="5"/>
+      <c r="O30" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O30" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P30" s="2">
+      <c r="P30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q30" s="2">
         <v>43921</v>
       </c>
-      <c r="Q30" s="5" t="s">
+      <c r="R30" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="R30" s="5" t="s">
+      <c r="S30" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="S30" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T30" s="2"/>
-      <c r="U30" s="5"/>
+      <c r="T30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U30" s="2"/>
       <c r="V30" s="5"/>
-      <c r="W30" s="5" t="s">
+      <c r="W30" s="5"/>
+      <c r="X30" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="X30" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y30" s="5" t="s">
         <v>46</v>
       </c>
       <c r="Z30" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AA30" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AB30" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC30" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF30" s="5"/>
+      <c r="AD30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG30" s="5"/>
-      <c r="AH30" s="2"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>71</v>
       </c>
@@ -4434,27 +4481,25 @@
       <c r="M31" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="N31" s="5"/>
+      <c r="O31" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O31" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="5"/>
+      <c r="P31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="2"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W31" s="4" t="s">
+      <c r="T31" s="5"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X31" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X31" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y31" s="5" t="s">
         <v>46</v>
       </c>
@@ -4465,20 +4510,23 @@
         <v>46</v>
       </c>
       <c r="AB31" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC31" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF31" s="5"/>
+      <c r="AD31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG31" s="5"/>
-      <c r="AH31" s="2"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>72</v>
       </c>
@@ -4516,55 +4564,56 @@
       <c r="M32" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="N32" s="5" t="s">
+      <c r="N32" s="5"/>
+      <c r="O32" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O32" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="5"/>
+      <c r="P32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T32" s="5"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="5"/>
       <c r="W32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X32" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X32" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y32" s="5" t="s">
         <v>46</v>
       </c>
       <c r="Z32" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AA32" s="5" t="s">
         <v>43</v>
       </c>
       <c r="AB32" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD32" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AD32" s="5"/>
-      <c r="AE32" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AE32" s="5"/>
       <c r="AF32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG32" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AG32" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH32" s="2"/>
+      <c r="AH32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>73</v>
       </c>
@@ -4602,39 +4651,37 @@
       <c r="M33" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="N33" s="5"/>
+      <c r="O33" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O33" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P33" s="2">
+      <c r="P33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q33" s="2">
         <v>43922</v>
       </c>
-      <c r="Q33" s="5" t="s">
+      <c r="R33" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="R33" s="5" t="s">
+      <c r="S33" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="S33" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T33" s="2">
+      <c r="T33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U33" s="2">
         <v>43942</v>
       </c>
-      <c r="U33" s="5" t="s">
+      <c r="V33" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="V33" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="W33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X33" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X33" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y33" s="5" t="s">
         <v>46</v>
       </c>
@@ -4645,20 +4692,23 @@
         <v>46</v>
       </c>
       <c r="AB33" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC33" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF33" s="5"/>
+      <c r="AD33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG33" s="5"/>
-      <c r="AH33" s="2"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>75</v>
       </c>
@@ -4696,27 +4746,25 @@
       <c r="M34" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="N34" s="5" t="s">
+      <c r="N34" s="5"/>
+      <c r="O34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O34" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="5"/>
+      <c r="P34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q34" s="2"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T34" s="5"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="5"/>
       <c r="W34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="X34" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y34" s="5" t="s">
         <v>46</v>
       </c>
@@ -4727,20 +4775,23 @@
         <v>46</v>
       </c>
       <c r="AB34" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC34" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF34" s="5"/>
+      <c r="AD34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG34" s="5"/>
-      <c r="AH34" s="2"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>77</v>
       </c>
@@ -4778,51 +4829,52 @@
       <c r="M35" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="N35" s="4" t="s">
+      <c r="N35" s="5"/>
+      <c r="O35" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O35" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="5"/>
+      <c r="P35" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="2"/>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T35" s="5"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="5"/>
       <c r="W35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X35" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X35" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y35" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z35" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AA35" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AB35" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC35" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD35" s="5"/>
-      <c r="AE35" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF35" s="5"/>
+      <c r="AD35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG35" s="5"/>
-      <c r="AH35" s="2"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="2"/>
     </row>
-    <row r="36" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>79</v>
       </c>
@@ -4860,29 +4912,27 @@
       <c r="M36" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="N36" s="4" t="s">
+      <c r="N36" s="5"/>
+      <c r="O36" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O36" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="5"/>
+      <c r="P36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q36" s="2"/>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T36" s="5"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="5"/>
       <c r="W36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X36" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X36" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y36" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z36" s="5" t="s">
         <v>46</v>
@@ -4891,22 +4941,25 @@
         <v>46</v>
       </c>
       <c r="AB36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC36" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="AC36" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD36" s="5"/>
-      <c r="AE36" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AD36" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE36" s="5"/>
       <c r="AF36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG36" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AG36" s="5"/>
-      <c r="AH36" s="2"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>82</v>
       </c>
@@ -4944,53 +4997,54 @@
       <c r="M37" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="N37" s="5" t="s">
+      <c r="N37" s="5"/>
+      <c r="O37" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O37" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="5"/>
+      <c r="P37" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q37" s="2"/>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W37" s="4" t="s">
+      <c r="T37" s="5"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X37" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="X37" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y37" s="5" t="s">
         <v>46</v>
       </c>
       <c r="Z37" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AA37" s="5" t="s">
         <v>43</v>
       </c>
       <c r="AB37" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD37" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="AD37" s="5"/>
-      <c r="AE37" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AE37" s="5"/>
       <c r="AF37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG37" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AG37" s="5"/>
-      <c r="AH37" s="2"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="2"/>
     </row>
-    <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>83</v>
       </c>
@@ -5028,59 +5082,60 @@
       <c r="M38" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N38" s="4" t="s">
+      <c r="N38" s="5"/>
+      <c r="O38" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O38" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P38" s="2">
+      <c r="P38" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q38" s="2">
         <v>43922</v>
       </c>
-      <c r="Q38" s="5" t="s">
+      <c r="R38" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="R38" s="5" t="s">
+      <c r="S38" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="S38" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T38" s="2"/>
-      <c r="U38" s="5"/>
+      <c r="T38" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U38" s="2"/>
       <c r="V38" s="5"/>
-      <c r="W38" s="4" t="s">
+      <c r="W38" s="5"/>
+      <c r="X38" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X38" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y38" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z38" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AA38" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AB38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC38" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC38" s="5" t="s">
+      <c r="AD38" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AD38" s="5" t="s">
+      <c r="AE38" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="AE38" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF38" s="5"/>
+      <c r="AF38" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG38" s="5"/>
-      <c r="AH38" s="2"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="2"/>
     </row>
-    <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>84</v>
       </c>
@@ -5118,41 +5173,39 @@
       <c r="M39" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="N39" s="4" t="s">
+      <c r="N39" s="5"/>
+      <c r="O39" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O39" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P39" s="2">
+      <c r="P39" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q39" s="2">
         <v>43922</v>
       </c>
-      <c r="Q39" s="5" t="s">
+      <c r="R39" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="R39" s="5" t="s">
+      <c r="S39" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="S39" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T39" s="2">
+      <c r="T39" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U39" s="2">
         <v>43945</v>
       </c>
-      <c r="U39" s="5" t="s">
+      <c r="V39" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="V39" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W39" s="4" t="s">
+      <c r="W39" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X39" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X39" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y39" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z39" s="5" t="s">
         <v>46</v>
@@ -5161,20 +5214,23 @@
         <v>46</v>
       </c>
       <c r="AB39" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC39" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD39" s="5"/>
-      <c r="AE39" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF39" s="5"/>
+      <c r="AD39" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG39" s="5"/>
-      <c r="AH39" s="2"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="2"/>
     </row>
-    <row r="40" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>85</v>
       </c>
@@ -5212,27 +5268,25 @@
       <c r="M40" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="N40" s="4" t="s">
+      <c r="N40" s="5"/>
+      <c r="O40" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O40" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="5"/>
+      <c r="P40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q40" s="2"/>
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W40" s="4" t="s">
+      <c r="T40" s="5"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X40" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X40" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y40" s="5" t="s">
         <v>46</v>
       </c>
@@ -5240,23 +5294,26 @@
         <v>46</v>
       </c>
       <c r="AA40" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB40" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC40" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD40" s="5"/>
-      <c r="AE40" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF40" s="5"/>
+      <c r="AD40" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG40" s="5"/>
-      <c r="AH40" s="2"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="2"/>
     </row>
-    <row r="41" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>87</v>
       </c>
@@ -5294,27 +5351,25 @@
       <c r="M41" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N41" s="5" t="s">
+      <c r="N41" s="5"/>
+      <c r="O41" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O41" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="5"/>
+      <c r="P41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q41" s="2"/>
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W41" s="4" t="s">
+      <c r="T41" s="5"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X41" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X41" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y41" s="5" t="s">
         <v>46</v>
       </c>
@@ -5325,20 +5380,23 @@
         <v>46</v>
       </c>
       <c r="AB41" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC41" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF41" s="5"/>
+      <c r="AD41" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG41" s="5"/>
-      <c r="AH41" s="2"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="2"/>
     </row>
-    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>88</v>
       </c>
@@ -5376,57 +5434,58 @@
       <c r="M42" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="N42" s="5" t="s">
+      <c r="N42" s="5"/>
+      <c r="O42" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O42" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="5"/>
+      <c r="P42" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q42" s="2"/>
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W42" s="4" t="s">
+      <c r="T42" s="5"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X42" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X42" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y42" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z42" s="5" t="s">
         <v>46</v>
       </c>
       <c r="AA42" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC42" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="AC42" s="5" t="s">
+      <c r="AD42" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD42" s="5"/>
-      <c r="AE42" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AE42" s="5"/>
       <c r="AF42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG42" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AG42" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH42" s="2">
+      <c r="AH42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI42" s="2">
         <v>43936</v>
       </c>
     </row>
-    <row r="43" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>91</v>
       </c>
@@ -5464,51 +5523,52 @@
       <c r="M43" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="5"/>
+      <c r="O43" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O43" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="5"/>
+      <c r="P43" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q43" s="2"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T43" s="5"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="5"/>
       <c r="W43" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X43" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="X43" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y43" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z43" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AA43" s="5" t="s">
         <v>43</v>
       </c>
       <c r="AB43" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC43" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AC43" s="5" t="s">
+      <c r="AD43" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD43" s="5"/>
-      <c r="AE43" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG43" s="5"/>
-      <c r="AH43" s="2"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="2"/>
     </row>
-    <row r="44" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>93</v>
       </c>
@@ -5546,51 +5606,52 @@
       <c r="M44" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="N44" s="5" t="s">
+      <c r="N44" s="5"/>
+      <c r="O44" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O44" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="5"/>
+      <c r="P44" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q44" s="2"/>
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T44" s="5"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="5"/>
       <c r="W44" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X44" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="X44" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y44" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z44" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AA44" s="5" t="s">
         <v>43</v>
       </c>
       <c r="AB44" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC44" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD44" s="5"/>
-      <c r="AE44" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF44" s="5"/>
+      <c r="AD44" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG44" s="5"/>
-      <c r="AH44" s="2"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="2"/>
     </row>
-    <row r="45" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>95</v>
       </c>
@@ -5628,27 +5689,25 @@
       <c r="M45" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="N45" s="4" t="s">
+      <c r="N45" s="5"/>
+      <c r="O45" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O45" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="5"/>
+      <c r="P45" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q45" s="2"/>
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W45" s="4" t="s">
+      <c r="T45" s="5"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X45" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X45" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y45" s="5" t="s">
         <v>46</v>
       </c>
@@ -5656,23 +5715,26 @@
         <v>46</v>
       </c>
       <c r="AA45" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB45" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC45" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="AC45" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD45" s="5"/>
-      <c r="AE45" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF45" s="5"/>
+      <c r="AD45" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG45" s="5"/>
-      <c r="AH45" s="2"/>
+      <c r="AH45" s="5"/>
+      <c r="AI45" s="2"/>
     </row>
-    <row r="46" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>96</v>
       </c>
@@ -5710,39 +5772,37 @@
       <c r="M46" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="N46" s="4" t="s">
+      <c r="N46" s="5"/>
+      <c r="O46" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O46" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P46" s="2">
+      <c r="P46" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q46" s="2">
         <v>43928</v>
       </c>
-      <c r="Q46" s="5" t="s">
+      <c r="R46" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="R46" s="5" t="s">
+      <c r="S46" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="S46" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T46" s="2">
+      <c r="T46" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U46" s="2">
         <v>43972</v>
       </c>
-      <c r="U46" s="5" t="s">
+      <c r="V46" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="V46" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W46" s="4" t="s">
+      <c r="W46" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X46" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X46" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y46" s="5" t="s">
         <v>46</v>
       </c>
@@ -5753,20 +5813,23 @@
         <v>46</v>
       </c>
       <c r="AB46" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC46" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AC46" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD46" s="5"/>
-      <c r="AE46" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF46" s="5"/>
+      <c r="AD46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG46" s="5"/>
-      <c r="AH46" s="2"/>
+      <c r="AH46" s="5"/>
+      <c r="AI46" s="2"/>
     </row>
-    <row r="47" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>98</v>
       </c>
@@ -5804,29 +5867,27 @@
       <c r="M47" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="N47" s="5" t="s">
+      <c r="N47" s="5"/>
+      <c r="O47" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O47" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="5"/>
+      <c r="P47" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q47" s="2"/>
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T47" s="5"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="5"/>
       <c r="W47" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X47" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X47" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y47" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Z47" s="5" t="s">
         <v>43</v>
@@ -5835,20 +5896,23 @@
         <v>43</v>
       </c>
       <c r="AB47" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC47" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="AC47" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD47" s="5"/>
-      <c r="AE47" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF47" s="5"/>
+      <c r="AD47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG47" s="5"/>
-      <c r="AH47" s="2"/>
+      <c r="AH47" s="5"/>
+      <c r="AI47" s="2"/>
     </row>
-    <row r="48" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>100</v>
       </c>
@@ -5886,57 +5950,58 @@
       <c r="M48" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="N48" s="5" t="s">
+      <c r="N48" s="5"/>
+      <c r="O48" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O48" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="5"/>
+      <c r="P48" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q48" s="2"/>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W48" s="4" t="s">
+      <c r="T48" s="5"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X48" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X48" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y48" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z48" s="5" t="s">
         <v>46</v>
       </c>
       <c r="AA48" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB48" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC48" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AC48" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD48" s="5"/>
-      <c r="AE48" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AD48" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE48" s="5"/>
       <c r="AF48" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG48" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AG48" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH48" s="2">
+      <c r="AH48" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI48" s="2">
         <v>43927</v>
       </c>
     </row>
-    <row r="49" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>105</v>
       </c>
@@ -5974,27 +6039,25 @@
       <c r="M49" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="N49" s="4" t="s">
+      <c r="N49" s="5"/>
+      <c r="O49" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O49" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="5"/>
+      <c r="P49" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q49" s="2"/>
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T49" s="5"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="5"/>
       <c r="W49" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X49" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="X49" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y49" s="5" t="s">
         <v>46</v>
       </c>
@@ -6005,20 +6068,23 @@
         <v>46</v>
       </c>
       <c r="AB49" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC49" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD49" s="5"/>
-      <c r="AE49" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF49" s="5"/>
+      <c r="AD49" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG49" s="5"/>
-      <c r="AH49" s="2"/>
+      <c r="AH49" s="5"/>
+      <c r="AI49" s="2"/>
     </row>
-    <row r="50" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>107</v>
       </c>
@@ -6056,27 +6122,25 @@
       <c r="M50" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="N50" s="4" t="s">
+      <c r="N50" s="5"/>
+      <c r="O50" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O50" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="5"/>
+      <c r="P50" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q50" s="2"/>
       <c r="R50" s="5"/>
       <c r="S50" s="5"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W50" s="4" t="s">
+      <c r="T50" s="5"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X50" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="X50" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y50" s="5" t="s">
         <v>46</v>
       </c>
@@ -6087,20 +6151,23 @@
         <v>46</v>
       </c>
       <c r="AB50" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC50" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD50" s="5"/>
-      <c r="AE50" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF50" s="5"/>
+      <c r="AD50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG50" s="5"/>
-      <c r="AH50" s="2"/>
+      <c r="AH50" s="5"/>
+      <c r="AI50" s="2"/>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>111</v>
       </c>
@@ -6139,34 +6206,34 @@
         <v>148</v>
       </c>
       <c r="N51" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O51" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O51" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P51" s="2">
+      <c r="P51" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q51" s="2">
         <v>43938</v>
       </c>
-      <c r="Q51" s="5" t="s">
+      <c r="R51" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="R51" s="5" t="s">
+      <c r="S51" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="S51" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T51" s="2"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W51" s="4" t="s">
+      <c r="T51" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U51" s="2"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X51" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="X51" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y51" s="5" t="s">
         <v>46</v>
       </c>
@@ -6177,20 +6244,23 @@
         <v>46</v>
       </c>
       <c r="AB51" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC51" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD51" s="5"/>
-      <c r="AE51" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF51" s="5"/>
+      <c r="AD51" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG51" s="5"/>
-      <c r="AH51" s="2"/>
+      <c r="AH51" s="5"/>
+      <c r="AI51" s="2"/>
     </row>
-    <row r="52" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>116</v>
       </c>
@@ -6228,27 +6298,25 @@
       <c r="M52" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N52" s="4" t="s">
+      <c r="N52" s="5"/>
+      <c r="O52" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O52" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="5"/>
+      <c r="P52" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q52" s="2"/>
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T52" s="5"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="5"/>
       <c r="W52" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X52" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X52" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y52" s="5" t="s">
         <v>46</v>
       </c>
@@ -6259,20 +6327,23 @@
         <v>46</v>
       </c>
       <c r="AB52" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC52" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD52" s="5"/>
-      <c r="AE52" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF52" s="5"/>
+      <c r="AD52" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG52" s="5"/>
-      <c r="AH52" s="2"/>
+      <c r="AH52" s="5"/>
+      <c r="AI52" s="2"/>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>117</v>
       </c>
@@ -6311,34 +6382,34 @@
         <v>148</v>
       </c>
       <c r="N53" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O53" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O53" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P53" s="2">
+      <c r="P53" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q53" s="2">
         <v>43911</v>
       </c>
-      <c r="Q53" s="5" t="s">
+      <c r="R53" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="R53" s="5" t="s">
+      <c r="S53" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="S53" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T53" s="2"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W53" s="4" t="s">
+      <c r="T53" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U53" s="2"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X53" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X53" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y53" s="5" t="s">
         <v>46</v>
       </c>
@@ -6349,20 +6420,23 @@
         <v>46</v>
       </c>
       <c r="AB53" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC53" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD53" s="5"/>
-      <c r="AE53" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF53" s="5"/>
+      <c r="AD53" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG53" s="5"/>
-      <c r="AH53" s="2"/>
+      <c r="AH53" s="5"/>
+      <c r="AI53" s="2"/>
     </row>
-    <row r="54" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>118</v>
       </c>
@@ -6400,27 +6474,25 @@
       <c r="M54" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N54" s="4" t="s">
+      <c r="N54" s="5"/>
+      <c r="O54" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O54" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="5"/>
+      <c r="P54" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q54" s="2"/>
       <c r="R54" s="5"/>
       <c r="S54" s="5"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T54" s="5"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="5"/>
       <c r="W54" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X54" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X54" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y54" s="5" t="s">
         <v>46</v>
       </c>
@@ -6431,20 +6503,23 @@
         <v>46</v>
       </c>
       <c r="AB54" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC54" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD54" s="5"/>
-      <c r="AE54" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF54" s="5"/>
+      <c r="AD54" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG54" s="5"/>
-      <c r="AH54" s="2"/>
+      <c r="AH54" s="5"/>
+      <c r="AI54" s="2"/>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>119</v>
       </c>
@@ -6483,34 +6558,34 @@
         <v>258</v>
       </c>
       <c r="N55" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O55" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O55" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P55" s="2">
+      <c r="P55" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q55" s="2">
         <v>43911</v>
       </c>
-      <c r="Q55" s="5" t="s">
+      <c r="R55" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="R55" s="5" t="s">
+      <c r="S55" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="S55" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T55" s="2"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W55" s="4" t="s">
+      <c r="T55" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U55" s="2"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X55" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X55" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y55" s="5" t="s">
         <v>46</v>
       </c>
@@ -6521,20 +6596,23 @@
         <v>46</v>
       </c>
       <c r="AB55" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC55" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD55" s="5"/>
-      <c r="AE55" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF55" s="5"/>
+      <c r="AD55" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG55" s="5"/>
-      <c r="AH55" s="2"/>
+      <c r="AH55" s="5"/>
+      <c r="AI55" s="2"/>
     </row>
-    <row r="56" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>121</v>
       </c>
@@ -6572,27 +6650,25 @@
       <c r="M56" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N56" s="5" t="s">
+      <c r="N56" s="5"/>
+      <c r="O56" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O56" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="5"/>
+      <c r="P56" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q56" s="2"/>
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
-      <c r="T56" s="2"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T56" s="5"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="5"/>
       <c r="W56" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X56" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X56" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y56" s="5" t="s">
         <v>46</v>
       </c>
@@ -6603,20 +6679,23 @@
         <v>46</v>
       </c>
       <c r="AB56" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC56" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD56" s="5"/>
-      <c r="AE56" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF56" s="5"/>
+      <c r="AD56" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG56" s="5"/>
-      <c r="AH56" s="2"/>
+      <c r="AH56" s="5"/>
+      <c r="AI56" s="2"/>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>122</v>
       </c>
@@ -6654,35 +6733,35 @@
       <c r="M57" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="N57" s="4" t="s">
+      <c r="N57" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O57" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O57" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P57" s="2">
+      <c r="P57" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q57" s="2">
         <v>43911</v>
       </c>
-      <c r="Q57" s="5" t="s">
+      <c r="R57" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="R57" s="5" t="s">
+      <c r="S57" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="S57" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T57" s="2"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W57" s="4" t="s">
+      <c r="T57" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U57" s="2"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X57" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X57" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y57" s="5" t="s">
         <v>46</v>
       </c>
@@ -6693,20 +6772,23 @@
         <v>46</v>
       </c>
       <c r="AB57" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC57" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD57" s="5"/>
-      <c r="AE57" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF57" s="5"/>
+      <c r="AD57" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG57" s="5"/>
-      <c r="AH57" s="2"/>
+      <c r="AH57" s="5"/>
+      <c r="AI57" s="2"/>
     </row>
-    <row r="58" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>124</v>
       </c>
@@ -6744,27 +6826,25 @@
       <c r="M58" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="N58" s="5" t="s">
+      <c r="N58" s="5"/>
+      <c r="O58" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O58" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="5"/>
+      <c r="P58" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q58" s="2"/>
       <c r="R58" s="5"/>
       <c r="S58" s="5"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T58" s="5"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="5"/>
       <c r="W58" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X58" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X58" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y58" s="5" t="s">
         <v>46</v>
       </c>
@@ -6775,20 +6855,23 @@
         <v>46</v>
       </c>
       <c r="AB58" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC58" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD58" s="5"/>
-      <c r="AE58" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF58" s="5"/>
+      <c r="AD58" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG58" s="5"/>
-      <c r="AH58" s="2"/>
+      <c r="AH58" s="5"/>
+      <c r="AI58" s="2"/>
     </row>
-    <row r="59" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>125</v>
       </c>
@@ -6826,27 +6909,25 @@
       <c r="M59" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="N59" s="5" t="s">
+      <c r="N59" s="5"/>
+      <c r="O59" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O59" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="5"/>
+      <c r="P59" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q59" s="2"/>
       <c r="R59" s="5"/>
       <c r="S59" s="5"/>
-      <c r="T59" s="2"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T59" s="5"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="5"/>
       <c r="W59" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X59" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X59" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y59" s="5" t="s">
         <v>46</v>
       </c>
@@ -6857,20 +6938,23 @@
         <v>46</v>
       </c>
       <c r="AB59" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC59" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD59" s="5"/>
-      <c r="AE59" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF59" s="5"/>
+      <c r="AD59" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE59" s="5"/>
+      <c r="AF59" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG59" s="5"/>
-      <c r="AH59" s="2"/>
+      <c r="AH59" s="5"/>
+      <c r="AI59" s="2"/>
     </row>
-    <row r="60" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>126</v>
       </c>
@@ -6908,27 +6992,25 @@
       <c r="M60" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="N60" s="5" t="s">
+      <c r="N60" s="5"/>
+      <c r="O60" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O60" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="5"/>
+      <c r="P60" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q60" s="2"/>
       <c r="R60" s="5"/>
       <c r="S60" s="5"/>
-      <c r="T60" s="2"/>
-      <c r="U60" s="5"/>
-      <c r="V60" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T60" s="5"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="5"/>
       <c r="W60" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X60" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X60" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y60" s="5" t="s">
         <v>46</v>
       </c>
@@ -6939,20 +7021,23 @@
         <v>46</v>
       </c>
       <c r="AB60" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC60" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD60" s="5"/>
-      <c r="AE60" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF60" s="5"/>
+      <c r="AD60" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG60" s="5"/>
-      <c r="AH60" s="2"/>
+      <c r="AH60" s="5"/>
+      <c r="AI60" s="2"/>
     </row>
-    <row r="61" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>127</v>
       </c>
@@ -6990,27 +7075,25 @@
       <c r="M61" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="N61" s="4" t="s">
+      <c r="N61" s="5"/>
+      <c r="O61" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O61" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="5"/>
+      <c r="P61" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q61" s="2"/>
       <c r="R61" s="5"/>
       <c r="S61" s="5"/>
-      <c r="T61" s="2"/>
-      <c r="U61" s="5"/>
-      <c r="V61" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T61" s="5"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="5"/>
       <c r="W61" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X61" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X61" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y61" s="5" t="s">
         <v>46</v>
       </c>
@@ -7021,20 +7104,23 @@
         <v>46</v>
       </c>
       <c r="AB61" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC61" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD61" s="5"/>
-      <c r="AE61" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF61" s="5"/>
+      <c r="AD61" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE61" s="5"/>
+      <c r="AF61" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG61" s="5"/>
-      <c r="AH61" s="2"/>
+      <c r="AH61" s="5"/>
+      <c r="AI61" s="2"/>
     </row>
-    <row r="62" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>128</v>
       </c>
@@ -7072,27 +7158,25 @@
       <c r="M62" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="N62" s="4" t="s">
+      <c r="N62" s="5"/>
+      <c r="O62" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O62" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="5"/>
+      <c r="P62" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q62" s="2"/>
       <c r="R62" s="5"/>
       <c r="S62" s="5"/>
-      <c r="T62" s="2"/>
-      <c r="U62" s="5"/>
-      <c r="V62" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W62" s="4" t="s">
+      <c r="T62" s="5"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X62" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X62" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y62" s="5" t="s">
         <v>46</v>
       </c>
@@ -7103,20 +7187,23 @@
         <v>46</v>
       </c>
       <c r="AB62" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC62" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD62" s="5"/>
-      <c r="AE62" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF62" s="5"/>
+      <c r="AD62" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE62" s="5"/>
+      <c r="AF62" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG62" s="5"/>
-      <c r="AH62" s="2"/>
+      <c r="AH62" s="5"/>
+      <c r="AI62" s="2"/>
     </row>
-    <row r="63" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>131</v>
       </c>
@@ -7154,27 +7241,25 @@
       <c r="M63" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="N63" s="4" t="s">
+      <c r="N63" s="5"/>
+      <c r="O63" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O63" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="5"/>
+      <c r="P63" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q63" s="2"/>
       <c r="R63" s="5"/>
       <c r="S63" s="5"/>
-      <c r="T63" s="2"/>
-      <c r="U63" s="5"/>
-      <c r="V63" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W63" s="4" t="s">
+      <c r="T63" s="5"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X63" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="X63" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y63" s="5" t="s">
         <v>46</v>
       </c>
@@ -7185,20 +7270,23 @@
         <v>46</v>
       </c>
       <c r="AB63" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC63" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD63" s="5"/>
-      <c r="AE63" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF63" s="5"/>
+      <c r="AD63" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE63" s="5"/>
+      <c r="AF63" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG63" s="5"/>
-      <c r="AH63" s="2"/>
+      <c r="AH63" s="5"/>
+      <c r="AI63" s="2"/>
     </row>
-    <row r="64" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>132</v>
       </c>
@@ -7236,27 +7324,25 @@
       <c r="M64" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="N64" s="4" t="s">
+      <c r="N64" s="5"/>
+      <c r="O64" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O64" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="5"/>
+      <c r="P64" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q64" s="2"/>
       <c r="R64" s="5"/>
       <c r="S64" s="5"/>
-      <c r="T64" s="2"/>
-      <c r="U64" s="5"/>
-      <c r="V64" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W64" s="4" t="s">
+      <c r="T64" s="5"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X64" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="X64" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y64" s="5" t="s">
         <v>46</v>
       </c>
@@ -7267,20 +7353,23 @@
         <v>46</v>
       </c>
       <c r="AB64" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC64" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AC64" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD64" s="5"/>
-      <c r="AE64" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF64" s="5"/>
+      <c r="AD64" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE64" s="5"/>
+      <c r="AF64" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG64" s="5"/>
-      <c r="AH64" s="2"/>
+      <c r="AH64" s="5"/>
+      <c r="AI64" s="2"/>
     </row>
-    <row r="65" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>134</v>
       </c>
@@ -7318,51 +7407,52 @@
       <c r="M65" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="N65" s="4" t="s">
+      <c r="N65" s="5"/>
+      <c r="O65" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O65" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="5"/>
+      <c r="P65" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q65" s="2"/>
       <c r="R65" s="5"/>
       <c r="S65" s="5"/>
-      <c r="T65" s="2"/>
-      <c r="U65" s="5"/>
-      <c r="V65" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T65" s="5"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="5"/>
       <c r="W65" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X65" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="X65" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y65" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Z65" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA65" s="5" t="s">
         <v>46</v>
       </c>
       <c r="AB65" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC65" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC65" s="5" t="s">
+      <c r="AD65" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AD65" s="5"/>
-      <c r="AE65" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF65" s="5"/>
+      <c r="AE65" s="5"/>
+      <c r="AF65" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG65" s="5"/>
-      <c r="AH65" s="2"/>
+      <c r="AH65" s="5"/>
+      <c r="AI65" s="2"/>
     </row>
-    <row r="66" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>135</v>
       </c>
@@ -7400,27 +7490,25 @@
       <c r="M66" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="N66" s="4" t="s">
+      <c r="N66" s="5"/>
+      <c r="O66" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O66" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="5"/>
+      <c r="P66" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q66" s="2"/>
       <c r="R66" s="5"/>
       <c r="S66" s="5"/>
-      <c r="T66" s="2"/>
-      <c r="U66" s="5"/>
-      <c r="V66" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T66" s="5"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="5"/>
       <c r="W66" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X66" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="X66" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y66" s="5" t="s">
         <v>46</v>
       </c>
@@ -7431,20 +7519,23 @@
         <v>46</v>
       </c>
       <c r="AB66" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC66" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD66" s="5"/>
-      <c r="AE66" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF66" s="5"/>
+      <c r="AD66" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE66" s="5"/>
+      <c r="AF66" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG66" s="5"/>
-      <c r="AH66" s="2"/>
+      <c r="AH66" s="5"/>
+      <c r="AI66" s="2"/>
     </row>
-    <row r="67" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>136</v>
       </c>
@@ -7482,27 +7573,25 @@
       <c r="M67" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="N67" s="4" t="s">
+      <c r="N67" s="5"/>
+      <c r="O67" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O67" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="5"/>
+      <c r="P67" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q67" s="2"/>
       <c r="R67" s="5"/>
       <c r="S67" s="5"/>
-      <c r="T67" s="2"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T67" s="5"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="5"/>
       <c r="W67" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X67" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="X67" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y67" s="5" t="s">
         <v>46</v>
       </c>
@@ -7513,20 +7602,23 @@
         <v>46</v>
       </c>
       <c r="AB67" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC67" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="AC67" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD67" s="5"/>
-      <c r="AE67" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF67" s="5"/>
+      <c r="AD67" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE67" s="5"/>
+      <c r="AF67" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG67" s="5"/>
-      <c r="AH67" s="2"/>
+      <c r="AH67" s="5"/>
+      <c r="AI67" s="2"/>
     </row>
-    <row r="68" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>139</v>
       </c>
@@ -7564,39 +7656,37 @@
       <c r="M68" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="N68" s="4" t="s">
+      <c r="N68" s="5"/>
+      <c r="O68" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O68" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P68" s="2">
+      <c r="P68" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q68" s="2">
         <v>43935</v>
       </c>
-      <c r="Q68" s="5" t="s">
+      <c r="R68" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="R68" s="5" t="s">
+      <c r="S68" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="S68" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T68" s="2">
+      <c r="T68" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U68" s="2">
         <v>43942</v>
       </c>
-      <c r="U68" s="5" t="s">
+      <c r="V68" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="V68" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="W68" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X68" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="X68" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y68" s="5" t="s">
         <v>43</v>
       </c>
@@ -7607,20 +7697,23 @@
         <v>43</v>
       </c>
       <c r="AB68" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC68" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="AC68" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD68" s="5"/>
-      <c r="AE68" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF68" s="5"/>
+      <c r="AD68" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE68" s="5"/>
+      <c r="AF68" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG68" s="5"/>
-      <c r="AH68" s="2"/>
+      <c r="AH68" s="5"/>
+      <c r="AI68" s="2"/>
     </row>
-    <row r="69" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>141</v>
       </c>
@@ -7658,27 +7751,25 @@
       <c r="M69" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="N69" s="4" t="s">
+      <c r="N69" s="5"/>
+      <c r="O69" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O69" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="5"/>
+      <c r="P69" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q69" s="2"/>
       <c r="R69" s="5"/>
       <c r="S69" s="5"/>
-      <c r="T69" s="2"/>
-      <c r="U69" s="5"/>
-      <c r="V69" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W69" s="4" t="s">
+      <c r="T69" s="5"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X69" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X69" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y69" s="5" t="s">
         <v>46</v>
       </c>
@@ -7686,23 +7777,26 @@
         <v>46</v>
       </c>
       <c r="AA69" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB69" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC69" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC69" s="5" t="s">
+      <c r="AD69" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AD69" s="5"/>
-      <c r="AE69" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF69" s="5"/>
+      <c r="AE69" s="5"/>
+      <c r="AF69" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG69" s="5"/>
-      <c r="AH69" s="2"/>
+      <c r="AH69" s="5"/>
+      <c r="AI69" s="2"/>
     </row>
-    <row r="70" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>142</v>
       </c>
@@ -7740,27 +7834,25 @@
       <c r="M70" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="N70" s="4" t="s">
+      <c r="N70" s="5"/>
+      <c r="O70" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O70" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="5"/>
+      <c r="P70" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q70" s="2"/>
       <c r="R70" s="5"/>
       <c r="S70" s="5"/>
-      <c r="T70" s="2"/>
-      <c r="U70" s="5"/>
-      <c r="V70" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T70" s="5"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="5"/>
       <c r="W70" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X70" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X70" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y70" s="5" t="s">
         <v>46</v>
       </c>
@@ -7771,20 +7863,23 @@
         <v>46</v>
       </c>
       <c r="AB70" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC70" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD70" s="5"/>
-      <c r="AE70" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF70" s="5"/>
+      <c r="AD70" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE70" s="5"/>
+      <c r="AF70" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG70" s="5"/>
-      <c r="AH70" s="2"/>
+      <c r="AH70" s="5"/>
+      <c r="AI70" s="2"/>
     </row>
-    <row r="71" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>143</v>
       </c>
@@ -7822,27 +7917,25 @@
       <c r="M71" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="N71" s="4" t="s">
+      <c r="N71" s="5"/>
+      <c r="O71" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O71" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="5"/>
+      <c r="P71" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q71" s="2"/>
       <c r="R71" s="5"/>
       <c r="S71" s="5"/>
-      <c r="T71" s="2"/>
-      <c r="U71" s="5"/>
-      <c r="V71" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W71" s="4" t="s">
+      <c r="T71" s="5"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X71" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X71" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y71" s="5" t="s">
         <v>46</v>
       </c>
@@ -7853,20 +7946,23 @@
         <v>46</v>
       </c>
       <c r="AB71" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC71" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AC71" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD71" s="5"/>
-      <c r="AE71" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF71" s="5"/>
+      <c r="AD71" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE71" s="5"/>
+      <c r="AF71" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG71" s="5"/>
-      <c r="AH71" s="2"/>
+      <c r="AH71" s="5"/>
+      <c r="AI71" s="2"/>
     </row>
-    <row r="72" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>145</v>
       </c>
@@ -7904,27 +8000,25 @@
       <c r="M72" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N72" s="4" t="s">
+      <c r="N72" s="5"/>
+      <c r="O72" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O72" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="5"/>
+      <c r="P72" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q72" s="2"/>
       <c r="R72" s="5"/>
       <c r="S72" s="5"/>
-      <c r="T72" s="2"/>
-      <c r="U72" s="5"/>
-      <c r="V72" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W72" s="4" t="s">
+      <c r="T72" s="5"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="5"/>
+      <c r="W72" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X72" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="X72" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y72" s="5" t="s">
         <v>46</v>
       </c>
@@ -7932,25 +8026,28 @@
         <v>46</v>
       </c>
       <c r="AA72" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB72" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC72" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="AC72" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD72" s="5"/>
-      <c r="AE72" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AD72" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE72" s="5"/>
       <c r="AF72" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG72" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AG72" s="5"/>
-      <c r="AH72" s="2"/>
+      <c r="AH72" s="5"/>
+      <c r="AI72" s="2"/>
     </row>
-    <row r="73" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>146</v>
       </c>
@@ -7988,27 +8085,25 @@
       <c r="M73" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="N73" s="4" t="s">
+      <c r="N73" s="5"/>
+      <c r="O73" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O73" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="5"/>
+      <c r="P73" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q73" s="2"/>
       <c r="R73" s="5"/>
       <c r="S73" s="5"/>
-      <c r="T73" s="2"/>
-      <c r="U73" s="5"/>
-      <c r="V73" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W73" s="4" t="s">
+      <c r="T73" s="5"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="5"/>
+      <c r="W73" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X73" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="X73" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y73" s="5" t="s">
         <v>46</v>
       </c>
@@ -8019,20 +8114,23 @@
         <v>46</v>
       </c>
       <c r="AB73" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC73" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD73" s="5"/>
-      <c r="AE73" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF73" s="5"/>
+      <c r="AD73" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE73" s="5"/>
+      <c r="AF73" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG73" s="5"/>
-      <c r="AH73" s="2"/>
+      <c r="AH73" s="5"/>
+      <c r="AI73" s="2"/>
     </row>
-    <row r="74" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>149</v>
       </c>
@@ -8070,51 +8168,52 @@
       <c r="M74" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="N74" s="4" t="s">
+      <c r="N74" s="5"/>
+      <c r="O74" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O74" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="5"/>
+      <c r="P74" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q74" s="2"/>
       <c r="R74" s="5"/>
       <c r="S74" s="5"/>
-      <c r="T74" s="2"/>
-      <c r="U74" s="5"/>
-      <c r="V74" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W74" s="4" t="s">
+      <c r="T74" s="5"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X74" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="X74" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y74" s="5" t="s">
         <v>46</v>
       </c>
       <c r="Z74" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AA74" s="5" t="s">
         <v>43</v>
       </c>
       <c r="AB74" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC74" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD74" s="5"/>
-      <c r="AE74" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF74" s="5"/>
+      <c r="AD74" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE74" s="5"/>
+      <c r="AF74" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG74" s="5"/>
-      <c r="AH74" s="2"/>
+      <c r="AH74" s="5"/>
+      <c r="AI74" s="2"/>
     </row>
-    <row r="75" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>150</v>
       </c>
@@ -8152,27 +8251,25 @@
       <c r="M75" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="N75" s="4" t="s">
+      <c r="N75" s="5"/>
+      <c r="O75" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O75" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="5"/>
+      <c r="P75" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q75" s="2"/>
       <c r="R75" s="5"/>
       <c r="S75" s="5"/>
-      <c r="T75" s="2"/>
-      <c r="U75" s="5"/>
-      <c r="V75" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W75" s="4" t="s">
+      <c r="T75" s="5"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X75" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="X75" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y75" s="5" t="s">
         <v>46</v>
       </c>
@@ -8180,23 +8277,26 @@
         <v>46</v>
       </c>
       <c r="AA75" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB75" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC75" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD75" s="5"/>
-      <c r="AE75" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF75" s="5"/>
+      <c r="AD75" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE75" s="5"/>
+      <c r="AF75" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG75" s="5"/>
-      <c r="AH75" s="2"/>
+      <c r="AH75" s="5"/>
+      <c r="AI75" s="2"/>
     </row>
-    <row r="76" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>152</v>
       </c>
@@ -8234,63 +8334,64 @@
       <c r="M76" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="N76" s="4" t="s">
+      <c r="N76" s="5"/>
+      <c r="O76" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O76" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P76" s="2">
+      <c r="P76" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q76" s="2">
         <v>43936</v>
       </c>
-      <c r="Q76" s="5" t="s">
+      <c r="R76" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R76" s="5" t="s">
+      <c r="S76" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="S76" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T76" s="2">
+      <c r="T76" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U76" s="2">
         <v>43951</v>
       </c>
-      <c r="U76" s="5" t="s">
+      <c r="V76" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="V76" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="W76" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X76" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X76" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y76" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Z76" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA76" s="5" t="s">
         <v>46</v>
       </c>
       <c r="AB76" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC76" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD76" s="5"/>
-      <c r="AE76" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF76" s="5"/>
+      <c r="AD76" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE76" s="5"/>
+      <c r="AF76" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG76" s="5"/>
-      <c r="AH76" s="2"/>
+      <c r="AH76" s="5"/>
+      <c r="AI76" s="2"/>
     </row>
-    <row r="77" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>153</v>
       </c>
@@ -8328,51 +8429,52 @@
       <c r="M77" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="N77" s="4" t="s">
+      <c r="N77" s="5"/>
+      <c r="O77" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O77" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="5"/>
+      <c r="P77" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q77" s="2"/>
       <c r="R77" s="5"/>
       <c r="S77" s="5"/>
-      <c r="T77" s="2"/>
-      <c r="U77" s="5"/>
-      <c r="V77" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T77" s="5"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="5"/>
       <c r="W77" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X77" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X77" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y77" s="5" t="s">
         <v>43</v>
       </c>
       <c r="Z77" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA77" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB77" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC77" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD77" s="5"/>
-      <c r="AE77" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF77" s="5"/>
+      <c r="AD77" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE77" s="5"/>
+      <c r="AF77" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG77" s="5"/>
-      <c r="AH77" s="2"/>
+      <c r="AH77" s="5"/>
+      <c r="AI77" s="2"/>
     </row>
-    <row r="78" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>155</v>
       </c>
@@ -8410,29 +8512,27 @@
       <c r="M78" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="N78" s="4" t="s">
+      <c r="N78" s="5"/>
+      <c r="O78" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O78" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="5"/>
+      <c r="P78" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q78" s="2"/>
       <c r="R78" s="5"/>
       <c r="S78" s="5"/>
-      <c r="T78" s="2"/>
-      <c r="U78" s="5"/>
-      <c r="V78" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W78" s="4" t="s">
+      <c r="T78" s="5"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="5"/>
+      <c r="W78" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X78" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X78" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y78" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z78" s="5" t="s">
         <v>46</v>
@@ -8441,20 +8541,23 @@
         <v>46</v>
       </c>
       <c r="AB78" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC78" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD78" s="5"/>
-      <c r="AE78" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF78" s="5"/>
+      <c r="AD78" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE78" s="5"/>
+      <c r="AF78" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG78" s="5"/>
-      <c r="AH78" s="2"/>
+      <c r="AH78" s="5"/>
+      <c r="AI78" s="2"/>
     </row>
-    <row r="79" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>156</v>
       </c>
@@ -8492,39 +8595,37 @@
       <c r="M79" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="N79" s="4" t="s">
+      <c r="N79" s="5"/>
+      <c r="O79" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O79" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P79" s="2">
+      <c r="P79" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q79" s="2">
         <v>43913</v>
       </c>
-      <c r="Q79" s="5" t="s">
+      <c r="R79" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="R79" s="5" t="s">
+      <c r="S79" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="S79" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T79" s="2">
+      <c r="T79" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U79" s="2">
         <v>43921</v>
       </c>
-      <c r="U79" s="5" t="s">
+      <c r="V79" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="V79" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W79" s="4" t="s">
+      <c r="W79" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X79" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="X79" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y79" s="5" t="s">
         <v>46</v>
       </c>
@@ -8535,20 +8636,23 @@
         <v>46</v>
       </c>
       <c r="AB79" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC79" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD79" s="5"/>
-      <c r="AE79" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF79" s="5"/>
+      <c r="AD79" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE79" s="5"/>
+      <c r="AF79" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG79" s="5"/>
-      <c r="AH79" s="2"/>
+      <c r="AH79" s="5"/>
+      <c r="AI79" s="2"/>
     </row>
-    <row r="80" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>157</v>
       </c>
@@ -8586,27 +8690,25 @@
       <c r="M80" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="N80" s="5" t="s">
+      <c r="N80" s="5"/>
+      <c r="O80" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O80" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="5"/>
+      <c r="P80" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q80" s="2"/>
       <c r="R80" s="5"/>
       <c r="S80" s="5"/>
-      <c r="T80" s="2"/>
-      <c r="U80" s="5"/>
-      <c r="V80" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T80" s="5"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="5"/>
       <c r="W80" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X80" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X80" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y80" s="5" t="s">
         <v>46</v>
       </c>
@@ -8617,20 +8719,23 @@
         <v>46</v>
       </c>
       <c r="AB80" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC80" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD80" s="5"/>
-      <c r="AE80" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF80" s="5"/>
+      <c r="AD80" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE80" s="5"/>
+      <c r="AF80" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG80" s="5"/>
-      <c r="AH80" s="2"/>
+      <c r="AH80" s="5"/>
+      <c r="AI80" s="2"/>
     </row>
-    <row r="81" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>158</v>
       </c>
@@ -8668,27 +8773,25 @@
       <c r="M81" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N81" s="5" t="s">
+      <c r="N81" s="5"/>
+      <c r="O81" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O81" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="5"/>
+      <c r="P81" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q81" s="2"/>
       <c r="R81" s="5"/>
       <c r="S81" s="5"/>
-      <c r="T81" s="2"/>
-      <c r="U81" s="5"/>
-      <c r="V81" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T81" s="5"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="5"/>
       <c r="W81" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X81" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="X81" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y81" s="5" t="s">
         <v>46</v>
       </c>
@@ -8699,20 +8802,23 @@
         <v>46</v>
       </c>
       <c r="AB81" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC81" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD81" s="5"/>
-      <c r="AE81" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF81" s="5"/>
+      <c r="AD81" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE81" s="5"/>
+      <c r="AF81" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG81" s="5"/>
-      <c r="AH81" s="2"/>
+      <c r="AH81" s="5"/>
+      <c r="AI81" s="2"/>
     </row>
-    <row r="82" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>159</v>
       </c>
@@ -8750,27 +8856,25 @@
       <c r="M82" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N82" s="4" t="s">
+      <c r="N82" s="5"/>
+      <c r="O82" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O82" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="5"/>
+      <c r="P82" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q82" s="2"/>
       <c r="R82" s="5"/>
       <c r="S82" s="5"/>
-      <c r="T82" s="2"/>
-      <c r="U82" s="5"/>
-      <c r="V82" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W82" s="4" t="s">
+      <c r="T82" s="5"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X82" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="X82" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y82" s="5" t="s">
         <v>46</v>
       </c>
@@ -8781,20 +8885,23 @@
         <v>46</v>
       </c>
       <c r="AB82" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC82" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD82" s="5"/>
-      <c r="AE82" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF82" s="5"/>
+      <c r="AD82" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE82" s="5"/>
+      <c r="AF82" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG82" s="5"/>
-      <c r="AH82" s="2"/>
+      <c r="AH82" s="5"/>
+      <c r="AI82" s="2"/>
     </row>
-    <row r="83" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>160</v>
       </c>
@@ -8832,27 +8939,25 @@
       <c r="M83" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N83" s="4" t="s">
+      <c r="N83" s="5"/>
+      <c r="O83" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O83" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="5"/>
+      <c r="P83" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q83" s="2"/>
       <c r="R83" s="5"/>
       <c r="S83" s="5"/>
-      <c r="T83" s="2"/>
-      <c r="U83" s="5"/>
-      <c r="V83" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T83" s="5"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="5"/>
       <c r="W83" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X83" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X83" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y83" s="5" t="s">
         <v>46</v>
       </c>
@@ -8863,20 +8968,23 @@
         <v>46</v>
       </c>
       <c r="AB83" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC83" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD83" s="5"/>
-      <c r="AE83" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF83" s="5"/>
+      <c r="AD83" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE83" s="5"/>
+      <c r="AF83" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG83" s="5"/>
-      <c r="AH83" s="2"/>
+      <c r="AH83" s="5"/>
+      <c r="AI83" s="2"/>
     </row>
-    <row r="84" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>161</v>
       </c>
@@ -8914,27 +9022,25 @@
       <c r="M84" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="N84" s="4" t="s">
+      <c r="N84" s="5"/>
+      <c r="O84" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O84" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="5"/>
+      <c r="P84" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q84" s="2"/>
       <c r="R84" s="5"/>
       <c r="S84" s="5"/>
-      <c r="T84" s="2"/>
-      <c r="U84" s="5"/>
-      <c r="V84" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T84" s="5"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="5"/>
       <c r="W84" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X84" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="X84" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y84" s="5" t="s">
         <v>46</v>
       </c>
@@ -8945,20 +9051,23 @@
         <v>46</v>
       </c>
       <c r="AB84" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC84" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD84" s="5"/>
-      <c r="AE84" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF84" s="5"/>
+      <c r="AD84" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE84" s="5"/>
+      <c r="AF84" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG84" s="5"/>
-      <c r="AH84" s="2"/>
+      <c r="AH84" s="5"/>
+      <c r="AI84" s="2"/>
     </row>
-    <row r="85" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>162</v>
       </c>
@@ -8996,27 +9105,25 @@
       <c r="M85" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="N85" s="5" t="s">
+      <c r="N85" s="5"/>
+      <c r="O85" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O85" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" s="5"/>
+      <c r="P85" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q85" s="2"/>
       <c r="R85" s="5"/>
       <c r="S85" s="5"/>
-      <c r="T85" s="2"/>
-      <c r="U85" s="5"/>
-      <c r="V85" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T85" s="5"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="5"/>
       <c r="W85" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X85" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="X85" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y85" s="5" t="s">
         <v>46</v>
       </c>
@@ -9027,20 +9134,23 @@
         <v>46</v>
       </c>
       <c r="AB85" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC85" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD85" s="5"/>
-      <c r="AE85" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF85" s="5"/>
+      <c r="AD85" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE85" s="5"/>
+      <c r="AF85" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG85" s="5"/>
-      <c r="AH85" s="2"/>
+      <c r="AH85" s="5"/>
+      <c r="AI85" s="2"/>
     </row>
-    <row r="86" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>163</v>
       </c>
@@ -9078,27 +9188,25 @@
       <c r="M86" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N86" s="4" t="s">
+      <c r="N86" s="5"/>
+      <c r="O86" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O86" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" s="5"/>
+      <c r="P86" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q86" s="2"/>
       <c r="R86" s="5"/>
       <c r="S86" s="5"/>
-      <c r="T86" s="2"/>
-      <c r="U86" s="5"/>
-      <c r="V86" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T86" s="5"/>
+      <c r="U86" s="2"/>
+      <c r="V86" s="5"/>
       <c r="W86" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X86" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X86" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y86" s="5" t="s">
         <v>46</v>
       </c>
@@ -9109,20 +9217,23 @@
         <v>46</v>
       </c>
       <c r="AB86" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC86" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC86" s="5" t="s">
+      <c r="AD86" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD86" s="5"/>
-      <c r="AE86" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF86" s="5"/>
+      <c r="AE86" s="5"/>
+      <c r="AF86" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG86" s="5"/>
-      <c r="AH86" s="2"/>
+      <c r="AH86" s="5"/>
+      <c r="AI86" s="2"/>
     </row>
-    <row r="87" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>164</v>
       </c>
@@ -9160,27 +9271,25 @@
       <c r="M87" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="N87" s="5" t="s">
+      <c r="N87" s="5"/>
+      <c r="O87" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O87" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="5"/>
+      <c r="P87" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q87" s="2"/>
       <c r="R87" s="5"/>
       <c r="S87" s="5"/>
-      <c r="T87" s="2"/>
-      <c r="U87" s="5"/>
-      <c r="V87" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T87" s="5"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="5"/>
       <c r="W87" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X87" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X87" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y87" s="5" t="s">
         <v>46</v>
       </c>
@@ -9191,20 +9300,23 @@
         <v>46</v>
       </c>
       <c r="AB87" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC87" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC87" s="5" t="s">
+      <c r="AD87" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD87" s="5"/>
-      <c r="AE87" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF87" s="5"/>
+      <c r="AE87" s="5"/>
+      <c r="AF87" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG87" s="5"/>
-      <c r="AH87" s="2"/>
+      <c r="AH87" s="5"/>
+      <c r="AI87" s="2"/>
     </row>
-    <row r="88" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>165</v>
       </c>
@@ -9242,27 +9354,25 @@
       <c r="M88" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="N88" s="4" t="s">
+      <c r="N88" s="5"/>
+      <c r="O88" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O88" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="5"/>
+      <c r="P88" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q88" s="2"/>
       <c r="R88" s="5"/>
       <c r="S88" s="5"/>
-      <c r="T88" s="2"/>
-      <c r="U88" s="5"/>
-      <c r="V88" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T88" s="5"/>
+      <c r="U88" s="2"/>
+      <c r="V88" s="5"/>
       <c r="W88" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X88" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X88" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y88" s="5" t="s">
         <v>46</v>
       </c>
@@ -9273,20 +9383,23 @@
         <v>46</v>
       </c>
       <c r="AB88" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC88" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD88" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AD88" s="5"/>
-      <c r="AE88" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF88" s="5"/>
+      <c r="AE88" s="5"/>
+      <c r="AF88" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG88" s="5"/>
-      <c r="AH88" s="2"/>
+      <c r="AH88" s="5"/>
+      <c r="AI88" s="2"/>
     </row>
-    <row r="89" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>166</v>
       </c>
@@ -9324,27 +9437,25 @@
       <c r="M89" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="N89" s="4" t="s">
+      <c r="N89" s="5"/>
+      <c r="O89" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O89" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" s="5"/>
+      <c r="P89" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q89" s="2"/>
       <c r="R89" s="5"/>
       <c r="S89" s="5"/>
-      <c r="T89" s="2"/>
-      <c r="U89" s="5"/>
-      <c r="V89" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T89" s="5"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="5"/>
       <c r="W89" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X89" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X89" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y89" s="5" t="s">
         <v>46</v>
       </c>
@@ -9352,23 +9463,26 @@
         <v>46</v>
       </c>
       <c r="AA89" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB89" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC89" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AC89" s="5" t="s">
+      <c r="AD89" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD89" s="5"/>
-      <c r="AE89" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF89" s="5"/>
+      <c r="AE89" s="5"/>
+      <c r="AF89" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG89" s="5"/>
-      <c r="AH89" s="2"/>
+      <c r="AH89" s="5"/>
+      <c r="AI89" s="2"/>
     </row>
-    <row r="90" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>167</v>
       </c>
@@ -9406,27 +9520,25 @@
       <c r="M90" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="N90" s="4" t="s">
+      <c r="N90" s="5"/>
+      <c r="O90" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O90" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="5"/>
+      <c r="P90" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q90" s="2"/>
       <c r="R90" s="5"/>
       <c r="S90" s="5"/>
-      <c r="T90" s="2"/>
-      <c r="U90" s="5"/>
-      <c r="V90" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T90" s="5"/>
+      <c r="U90" s="2"/>
+      <c r="V90" s="5"/>
       <c r="W90" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X90" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X90" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y90" s="5" t="s">
         <v>46</v>
       </c>
@@ -9437,20 +9549,23 @@
         <v>46</v>
       </c>
       <c r="AB90" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC90" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC90" s="5" t="s">
+      <c r="AD90" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD90" s="5"/>
-      <c r="AE90" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF90" s="5"/>
+      <c r="AE90" s="5"/>
+      <c r="AF90" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG90" s="5"/>
-      <c r="AH90" s="2"/>
+      <c r="AH90" s="5"/>
+      <c r="AI90" s="2"/>
     </row>
-    <row r="91" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>168</v>
       </c>
@@ -9488,27 +9603,25 @@
       <c r="M91" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="N91" s="5" t="s">
+      <c r="N91" s="5"/>
+      <c r="O91" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O91" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="5"/>
+      <c r="P91" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q91" s="2"/>
       <c r="R91" s="5"/>
       <c r="S91" s="5"/>
-      <c r="T91" s="2"/>
-      <c r="U91" s="5"/>
-      <c r="V91" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T91" s="5"/>
+      <c r="U91" s="2"/>
+      <c r="V91" s="5"/>
       <c r="W91" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X91" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X91" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y91" s="5" t="s">
         <v>46</v>
       </c>
@@ -9519,20 +9632,23 @@
         <v>46</v>
       </c>
       <c r="AB91" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC91" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC91" s="5" t="s">
+      <c r="AD91" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD91" s="5"/>
-      <c r="AE91" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF91" s="5"/>
+      <c r="AE91" s="5"/>
+      <c r="AF91" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG91" s="5"/>
-      <c r="AH91" s="2"/>
+      <c r="AH91" s="5"/>
+      <c r="AI91" s="2"/>
     </row>
-    <row r="92" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>169</v>
       </c>
@@ -9570,27 +9686,25 @@
       <c r="M92" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="N92" s="4" t="s">
+      <c r="N92" s="5"/>
+      <c r="O92" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O92" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="5"/>
+      <c r="P92" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q92" s="2"/>
       <c r="R92" s="5"/>
       <c r="S92" s="5"/>
-      <c r="T92" s="2"/>
-      <c r="U92" s="5"/>
-      <c r="V92" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T92" s="5"/>
+      <c r="U92" s="2"/>
+      <c r="V92" s="5"/>
       <c r="W92" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X92" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X92" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y92" s="5" t="s">
         <v>46</v>
       </c>
@@ -9601,20 +9715,23 @@
         <v>46</v>
       </c>
       <c r="AB92" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC92" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="AC92" s="5" t="s">
+      <c r="AD92" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD92" s="5"/>
-      <c r="AE92" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF92" s="5"/>
+      <c r="AE92" s="5"/>
+      <c r="AF92" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG92" s="5"/>
-      <c r="AH92" s="2"/>
+      <c r="AH92" s="5"/>
+      <c r="AI92" s="2"/>
     </row>
-    <row r="93" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>170</v>
       </c>
@@ -9652,27 +9769,25 @@
       <c r="M93" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="N93" s="4" t="s">
+      <c r="N93" s="5"/>
+      <c r="O93" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O93" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="5"/>
+      <c r="P93" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q93" s="2"/>
       <c r="R93" s="5"/>
       <c r="S93" s="5"/>
-      <c r="T93" s="2"/>
-      <c r="U93" s="5"/>
-      <c r="V93" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T93" s="5"/>
+      <c r="U93" s="2"/>
+      <c r="V93" s="5"/>
       <c r="W93" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X93" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X93" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y93" s="5" t="s">
         <v>46</v>
       </c>
@@ -9683,20 +9798,23 @@
         <v>46</v>
       </c>
       <c r="AB93" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC93" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC93" s="5" t="s">
+      <c r="AD93" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD93" s="5"/>
-      <c r="AE93" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF93" s="5"/>
+      <c r="AE93" s="5"/>
+      <c r="AF93" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG93" s="5"/>
-      <c r="AH93" s="2"/>
+      <c r="AH93" s="5"/>
+      <c r="AI93" s="2"/>
     </row>
-    <row r="94" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>171</v>
       </c>
@@ -9734,27 +9852,25 @@
       <c r="M94" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N94" s="4" t="s">
+      <c r="N94" s="5"/>
+      <c r="O94" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O94" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" s="5"/>
+      <c r="P94" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q94" s="2"/>
       <c r="R94" s="5"/>
       <c r="S94" s="5"/>
-      <c r="T94" s="2"/>
-      <c r="U94" s="5"/>
-      <c r="V94" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T94" s="5"/>
+      <c r="U94" s="2"/>
+      <c r="V94" s="5"/>
       <c r="W94" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X94" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X94" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y94" s="5" t="s">
         <v>46</v>
       </c>
@@ -9765,20 +9881,23 @@
         <v>46</v>
       </c>
       <c r="AB94" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC94" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC94" s="5" t="s">
+      <c r="AD94" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD94" s="5"/>
-      <c r="AE94" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF94" s="5"/>
+      <c r="AE94" s="5"/>
+      <c r="AF94" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG94" s="5"/>
-      <c r="AH94" s="2"/>
+      <c r="AH94" s="5"/>
+      <c r="AI94" s="2"/>
     </row>
-    <row r="95" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>172</v>
       </c>
@@ -9816,27 +9935,25 @@
       <c r="M95" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N95" s="4" t="s">
+      <c r="N95" s="5"/>
+      <c r="O95" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O95" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" s="5"/>
+      <c r="P95" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q95" s="2"/>
       <c r="R95" s="5"/>
       <c r="S95" s="5"/>
-      <c r="T95" s="2"/>
-      <c r="U95" s="5"/>
-      <c r="V95" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T95" s="5"/>
+      <c r="U95" s="2"/>
+      <c r="V95" s="5"/>
       <c r="W95" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X95" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X95" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y95" s="5" t="s">
         <v>46</v>
       </c>
@@ -9847,22 +9964,25 @@
         <v>46</v>
       </c>
       <c r="AB95" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC95" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC95" s="5" t="s">
+      <c r="AD95" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD95" s="5"/>
-      <c r="AE95" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AE95" s="5"/>
       <c r="AF95" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG95" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AG95" s="5"/>
-      <c r="AH95" s="2"/>
+      <c r="AH95" s="5"/>
+      <c r="AI95" s="2"/>
     </row>
-    <row r="96" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>173</v>
       </c>
@@ -9900,27 +10020,25 @@
       <c r="M96" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N96" s="5" t="s">
+      <c r="N96" s="5"/>
+      <c r="O96" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O96" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" s="5"/>
+      <c r="P96" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q96" s="2"/>
       <c r="R96" s="5"/>
       <c r="S96" s="5"/>
-      <c r="T96" s="2"/>
-      <c r="U96" s="5"/>
-      <c r="V96" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T96" s="5"/>
+      <c r="U96" s="2"/>
+      <c r="V96" s="5"/>
       <c r="W96" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X96" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X96" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y96" s="5" t="s">
         <v>46</v>
       </c>
@@ -9931,20 +10049,23 @@
         <v>46</v>
       </c>
       <c r="AB96" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC96" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD96" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD96" s="5"/>
-      <c r="AE96" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF96" s="5"/>
+      <c r="AE96" s="5"/>
+      <c r="AF96" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG96" s="5"/>
-      <c r="AH96" s="2"/>
+      <c r="AH96" s="5"/>
+      <c r="AI96" s="2"/>
     </row>
-    <row r="97" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>174</v>
       </c>
@@ -9982,27 +10103,25 @@
       <c r="M97" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="N97" s="4" t="s">
+      <c r="N97" s="5"/>
+      <c r="O97" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O97" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="5"/>
+      <c r="P97" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q97" s="2"/>
       <c r="R97" s="5"/>
       <c r="S97" s="5"/>
-      <c r="T97" s="2"/>
-      <c r="U97" s="5"/>
-      <c r="V97" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T97" s="5"/>
+      <c r="U97" s="2"/>
+      <c r="V97" s="5"/>
       <c r="W97" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X97" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X97" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y97" s="5" t="s">
         <v>46</v>
       </c>
@@ -10013,20 +10132,23 @@
         <v>46</v>
       </c>
       <c r="AB97" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC97" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AC97" s="5" t="s">
+      <c r="AD97" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD97" s="5"/>
-      <c r="AE97" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF97" s="5"/>
+      <c r="AE97" s="5"/>
+      <c r="AF97" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG97" s="5"/>
-      <c r="AH97" s="2"/>
+      <c r="AH97" s="5"/>
+      <c r="AI97" s="2"/>
     </row>
-    <row r="98" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>175</v>
       </c>
@@ -10064,27 +10186,25 @@
       <c r="M98" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="N98" s="4" t="s">
+      <c r="N98" s="5"/>
+      <c r="O98" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O98" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="5"/>
+      <c r="P98" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q98" s="2"/>
       <c r="R98" s="5"/>
       <c r="S98" s="5"/>
-      <c r="T98" s="2"/>
-      <c r="U98" s="5"/>
-      <c r="V98" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T98" s="5"/>
+      <c r="U98" s="2"/>
+      <c r="V98" s="5"/>
       <c r="W98" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X98" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X98" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y98" s="5" t="s">
         <v>46</v>
       </c>
@@ -10095,22 +10215,25 @@
         <v>46</v>
       </c>
       <c r="AB98" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC98" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC98" s="5" t="s">
+      <c r="AD98" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD98" s="5"/>
-      <c r="AE98" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AE98" s="5"/>
       <c r="AF98" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG98" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AG98" s="5"/>
-      <c r="AH98" s="2"/>
+      <c r="AH98" s="5"/>
+      <c r="AI98" s="2"/>
     </row>
-    <row r="99" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>176</v>
       </c>
@@ -10148,27 +10271,25 @@
       <c r="M99" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="N99" s="5" t="s">
+      <c r="N99" s="5"/>
+      <c r="O99" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O99" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" s="5"/>
+      <c r="P99" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q99" s="2"/>
       <c r="R99" s="5"/>
       <c r="S99" s="5"/>
-      <c r="T99" s="2"/>
-      <c r="U99" s="5"/>
-      <c r="V99" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T99" s="5"/>
+      <c r="U99" s="2"/>
+      <c r="V99" s="5"/>
       <c r="W99" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X99" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X99" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y99" s="5" t="s">
         <v>46</v>
       </c>
@@ -10179,20 +10300,23 @@
         <v>46</v>
       </c>
       <c r="AB99" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC99" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC99" s="5" t="s">
+      <c r="AD99" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD99" s="5"/>
-      <c r="AE99" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF99" s="5"/>
+      <c r="AE99" s="5"/>
+      <c r="AF99" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG99" s="5"/>
-      <c r="AH99" s="2"/>
+      <c r="AH99" s="5"/>
+      <c r="AI99" s="2"/>
     </row>
-    <row r="100" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>177</v>
       </c>
@@ -10230,33 +10354,31 @@
       <c r="M100" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="N100" s="4" t="s">
+      <c r="N100" s="5"/>
+      <c r="O100" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O100" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P100" s="2">
+      <c r="P100" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q100" s="2">
         <v>43936</v>
       </c>
-      <c r="Q100" s="5" t="s">
+      <c r="R100" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="R100" s="5" t="s">
+      <c r="S100" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="S100" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T100" s="2"/>
-      <c r="U100" s="5"/>
+      <c r="T100" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U100" s="2"/>
       <c r="V100" s="5"/>
-      <c r="W100" s="4" t="s">
+      <c r="W100" s="5"/>
+      <c r="X100" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="X100" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y100" s="5" t="s">
         <v>43</v>
       </c>
@@ -10267,20 +10389,23 @@
         <v>43</v>
       </c>
       <c r="AB100" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC100" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD100" s="5"/>
-      <c r="AE100" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF100" s="5"/>
+      <c r="AD100" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE100" s="5"/>
+      <c r="AF100" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG100" s="5"/>
-      <c r="AH100" s="2"/>
+      <c r="AH100" s="5"/>
+      <c r="AI100" s="2"/>
     </row>
-    <row r="101" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>178</v>
       </c>
@@ -10318,27 +10443,25 @@
       <c r="M101" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="N101" s="4" t="s">
+      <c r="N101" s="5"/>
+      <c r="O101" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O101" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" s="5"/>
+      <c r="P101" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q101" s="2"/>
       <c r="R101" s="5"/>
       <c r="S101" s="5"/>
-      <c r="T101" s="2"/>
-      <c r="U101" s="5"/>
-      <c r="V101" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T101" s="5"/>
+      <c r="U101" s="2"/>
+      <c r="V101" s="5"/>
       <c r="W101" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X101" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X101" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y101" s="5" t="s">
         <v>46</v>
       </c>
@@ -10349,20 +10472,23 @@
         <v>46</v>
       </c>
       <c r="AB101" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC101" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC101" s="5" t="s">
+      <c r="AD101" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD101" s="5"/>
-      <c r="AE101" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF101" s="5"/>
+      <c r="AE101" s="5"/>
+      <c r="AF101" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG101" s="5"/>
-      <c r="AH101" s="2"/>
+      <c r="AH101" s="5"/>
+      <c r="AI101" s="2"/>
     </row>
-    <row r="102" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>179</v>
       </c>
@@ -10400,27 +10526,25 @@
       <c r="M102" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="N102" s="4" t="s">
+      <c r="N102" s="5"/>
+      <c r="O102" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O102" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" s="5"/>
+      <c r="P102" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q102" s="2"/>
       <c r="R102" s="5"/>
       <c r="S102" s="5"/>
-      <c r="T102" s="2"/>
-      <c r="U102" s="5"/>
-      <c r="V102" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T102" s="5"/>
+      <c r="U102" s="2"/>
+      <c r="V102" s="5"/>
       <c r="W102" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X102" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X102" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y102" s="5" t="s">
         <v>46</v>
       </c>
@@ -10431,20 +10555,23 @@
         <v>46</v>
       </c>
       <c r="AB102" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC102" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC102" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD102" s="5"/>
-      <c r="AE102" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF102" s="5"/>
+      <c r="AD102" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE102" s="5"/>
+      <c r="AF102" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG102" s="5"/>
-      <c r="AH102" s="2"/>
+      <c r="AH102" s="5"/>
+      <c r="AI102" s="2"/>
     </row>
-    <row r="103" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>180</v>
       </c>
@@ -10482,27 +10609,25 @@
       <c r="M103" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="N103" s="4" t="s">
+      <c r="N103" s="5"/>
+      <c r="O103" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O103" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" s="5"/>
+      <c r="P103" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q103" s="2"/>
       <c r="R103" s="5"/>
       <c r="S103" s="5"/>
-      <c r="T103" s="2"/>
-      <c r="U103" s="5"/>
-      <c r="V103" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T103" s="5"/>
+      <c r="U103" s="2"/>
+      <c r="V103" s="5"/>
       <c r="W103" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X103" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X103" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y103" s="5" t="s">
         <v>46</v>
       </c>
@@ -10513,20 +10638,23 @@
         <v>46</v>
       </c>
       <c r="AB103" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC103" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD103" s="5"/>
-      <c r="AE103" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF103" s="5"/>
+      <c r="AD103" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE103" s="5"/>
+      <c r="AF103" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG103" s="5"/>
-      <c r="AH103" s="2"/>
+      <c r="AH103" s="5"/>
+      <c r="AI103" s="2"/>
     </row>
-    <row r="104" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>181</v>
       </c>
@@ -10564,27 +10692,25 @@
       <c r="M104" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="N104" s="4" t="s">
+      <c r="N104" s="5"/>
+      <c r="O104" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O104" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" s="5"/>
+      <c r="P104" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q104" s="2"/>
       <c r="R104" s="5"/>
       <c r="S104" s="5"/>
-      <c r="T104" s="2"/>
-      <c r="U104" s="5"/>
-      <c r="V104" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T104" s="5"/>
+      <c r="U104" s="2"/>
+      <c r="V104" s="5"/>
       <c r="W104" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X104" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X104" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y104" s="5" t="s">
         <v>46</v>
       </c>
@@ -10595,20 +10721,23 @@
         <v>46</v>
       </c>
       <c r="AB104" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC104" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD104" s="5"/>
-      <c r="AE104" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF104" s="5"/>
+      <c r="AD104" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE104" s="5"/>
+      <c r="AF104" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG104" s="5"/>
-      <c r="AH104" s="2"/>
+      <c r="AH104" s="5"/>
+      <c r="AI104" s="2"/>
     </row>
-    <row r="105" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>182</v>
       </c>
@@ -10646,27 +10775,25 @@
       <c r="M105" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="N105" s="4" t="s">
+      <c r="N105" s="5"/>
+      <c r="O105" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O105" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" s="5"/>
+      <c r="P105" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q105" s="2"/>
       <c r="R105" s="5"/>
       <c r="S105" s="5"/>
-      <c r="T105" s="2"/>
-      <c r="U105" s="5"/>
-      <c r="V105" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T105" s="5"/>
+      <c r="U105" s="2"/>
+      <c r="V105" s="5"/>
       <c r="W105" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X105" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X105" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y105" s="5" t="s">
         <v>46</v>
       </c>
@@ -10677,20 +10804,23 @@
         <v>46</v>
       </c>
       <c r="AB105" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC105" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC105" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD105" s="5"/>
-      <c r="AE105" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF105" s="5"/>
+      <c r="AD105" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE105" s="5"/>
+      <c r="AF105" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG105" s="5"/>
-      <c r="AH105" s="2"/>
+      <c r="AH105" s="5"/>
+      <c r="AI105" s="2"/>
     </row>
-    <row r="106" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>183</v>
       </c>
@@ -10728,27 +10858,25 @@
       <c r="M106" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="N106" s="5" t="s">
+      <c r="N106" s="5"/>
+      <c r="O106" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O106" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" s="5"/>
+      <c r="P106" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q106" s="2"/>
       <c r="R106" s="5"/>
       <c r="S106" s="5"/>
-      <c r="T106" s="2"/>
-      <c r="U106" s="5"/>
-      <c r="V106" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T106" s="5"/>
+      <c r="U106" s="2"/>
+      <c r="V106" s="5"/>
       <c r="W106" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X106" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X106" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y106" s="5" t="s">
         <v>46</v>
       </c>
@@ -10759,20 +10887,23 @@
         <v>46</v>
       </c>
       <c r="AB106" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC106" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC106" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD106" s="5"/>
-      <c r="AE106" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF106" s="5"/>
+      <c r="AD106" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE106" s="5"/>
+      <c r="AF106" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG106" s="5"/>
-      <c r="AH106" s="2"/>
+      <c r="AH106" s="5"/>
+      <c r="AI106" s="2"/>
     </row>
-    <row r="107" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>184</v>
       </c>
@@ -10810,27 +10941,25 @@
       <c r="M107" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="N107" s="4" t="s">
+      <c r="N107" s="5"/>
+      <c r="O107" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O107" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" s="5"/>
+      <c r="P107" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q107" s="2"/>
       <c r="R107" s="5"/>
       <c r="S107" s="5"/>
-      <c r="T107" s="2"/>
-      <c r="U107" s="5"/>
-      <c r="V107" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T107" s="5"/>
+      <c r="U107" s="2"/>
+      <c r="V107" s="5"/>
       <c r="W107" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X107" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X107" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y107" s="5" t="s">
         <v>46</v>
       </c>
@@ -10841,20 +10970,23 @@
         <v>46</v>
       </c>
       <c r="AB107" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC107" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="AC107" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD107" s="5"/>
-      <c r="AE107" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF107" s="5"/>
+      <c r="AD107" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE107" s="5"/>
+      <c r="AF107" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG107" s="5"/>
-      <c r="AH107" s="2"/>
+      <c r="AH107" s="5"/>
+      <c r="AI107" s="2"/>
     </row>
-    <row r="108" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>185</v>
       </c>
@@ -10892,27 +11024,25 @@
       <c r="M108" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="N108" s="4" t="s">
+      <c r="N108" s="5"/>
+      <c r="O108" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O108" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P108" s="2"/>
-      <c r="Q108" s="5"/>
+      <c r="P108" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q108" s="2"/>
       <c r="R108" s="5"/>
       <c r="S108" s="5"/>
-      <c r="T108" s="2"/>
-      <c r="U108" s="5"/>
-      <c r="V108" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T108" s="5"/>
+      <c r="U108" s="2"/>
+      <c r="V108" s="5"/>
       <c r="W108" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X108" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X108" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y108" s="5" t="s">
         <v>46</v>
       </c>
@@ -10923,20 +11053,23 @@
         <v>46</v>
       </c>
       <c r="AB108" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC108" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC108" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD108" s="5"/>
-      <c r="AE108" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF108" s="5"/>
+      <c r="AD108" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE108" s="5"/>
+      <c r="AF108" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG108" s="5"/>
-      <c r="AH108" s="2"/>
+      <c r="AH108" s="5"/>
+      <c r="AI108" s="2"/>
     </row>
-    <row r="109" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>186</v>
       </c>
@@ -10974,27 +11107,25 @@
       <c r="M109" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="N109" s="4" t="s">
+      <c r="N109" s="5"/>
+      <c r="O109" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O109" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P109" s="2"/>
-      <c r="Q109" s="5"/>
+      <c r="P109" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q109" s="2"/>
       <c r="R109" s="5"/>
       <c r="S109" s="5"/>
-      <c r="T109" s="2"/>
-      <c r="U109" s="5"/>
-      <c r="V109" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T109" s="5"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="5"/>
       <c r="W109" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X109" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X109" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y109" s="5" t="s">
         <v>46</v>
       </c>
@@ -11005,20 +11136,23 @@
         <v>46</v>
       </c>
       <c r="AB109" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC109" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="AC109" s="5" t="s">
+      <c r="AD109" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD109" s="5"/>
-      <c r="AE109" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF109" s="5"/>
+      <c r="AE109" s="5"/>
+      <c r="AF109" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG109" s="5"/>
-      <c r="AH109" s="2"/>
+      <c r="AH109" s="5"/>
+      <c r="AI109" s="2"/>
     </row>
-    <row r="110" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>187</v>
       </c>
@@ -11056,27 +11190,25 @@
       <c r="M110" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="N110" s="4" t="s">
+      <c r="N110" s="5"/>
+      <c r="O110" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O110" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P110" s="2"/>
-      <c r="Q110" s="5"/>
+      <c r="P110" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q110" s="2"/>
       <c r="R110" s="5"/>
       <c r="S110" s="5"/>
-      <c r="T110" s="2"/>
-      <c r="U110" s="5"/>
-      <c r="V110" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T110" s="5"/>
+      <c r="U110" s="2"/>
+      <c r="V110" s="5"/>
       <c r="W110" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X110" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X110" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y110" s="5" t="s">
         <v>46</v>
       </c>
@@ -11087,20 +11219,23 @@
         <v>46</v>
       </c>
       <c r="AB110" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC110" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC110" s="5" t="s">
+      <c r="AD110" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD110" s="5"/>
-      <c r="AE110" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF110" s="5"/>
+      <c r="AE110" s="5"/>
+      <c r="AF110" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG110" s="5"/>
-      <c r="AH110" s="2"/>
+      <c r="AH110" s="5"/>
+      <c r="AI110" s="2"/>
     </row>
-    <row r="111" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>188</v>
       </c>
@@ -11138,27 +11273,25 @@
       <c r="M111" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="N111" s="5" t="s">
+      <c r="N111" s="5"/>
+      <c r="O111" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O111" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P111" s="2"/>
-      <c r="Q111" s="5"/>
+      <c r="P111" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q111" s="2"/>
       <c r="R111" s="5"/>
       <c r="S111" s="5"/>
-      <c r="T111" s="2"/>
-      <c r="U111" s="5"/>
-      <c r="V111" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T111" s="5"/>
+      <c r="U111" s="2"/>
+      <c r="V111" s="5"/>
       <c r="W111" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X111" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X111" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y111" s="5" t="s">
         <v>46</v>
       </c>
@@ -11169,20 +11302,23 @@
         <v>46</v>
       </c>
       <c r="AB111" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC111" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC111" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD111" s="5"/>
-      <c r="AE111" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF111" s="5"/>
+      <c r="AD111" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE111" s="5"/>
+      <c r="AF111" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG111" s="5"/>
-      <c r="AH111" s="2"/>
+      <c r="AH111" s="5"/>
+      <c r="AI111" s="2"/>
     </row>
-    <row r="112" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>189</v>
       </c>
@@ -11220,27 +11356,25 @@
       <c r="M112" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="N112" s="5" t="s">
+      <c r="N112" s="5"/>
+      <c r="O112" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O112" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P112" s="2"/>
-      <c r="Q112" s="5"/>
+      <c r="P112" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q112" s="2"/>
       <c r="R112" s="5"/>
       <c r="S112" s="5"/>
-      <c r="T112" s="2"/>
-      <c r="U112" s="5"/>
-      <c r="V112" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T112" s="5"/>
+      <c r="U112" s="2"/>
+      <c r="V112" s="5"/>
       <c r="W112" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X112" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X112" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y112" s="5" t="s">
         <v>46</v>
       </c>
@@ -11251,20 +11385,23 @@
         <v>46</v>
       </c>
       <c r="AB112" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC112" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC112" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD112" s="5"/>
-      <c r="AE112" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF112" s="5"/>
+      <c r="AD112" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE112" s="5"/>
+      <c r="AF112" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG112" s="5"/>
-      <c r="AH112" s="2"/>
+      <c r="AH112" s="5"/>
+      <c r="AI112" s="2"/>
     </row>
-    <row r="113" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>190</v>
       </c>
@@ -11302,54 +11439,58 @@
       <c r="M113" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="N113" s="5" t="s">
+      <c r="N113" s="5"/>
+      <c r="O113" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O113" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P113" s="2"/>
-      <c r="Q113" s="5"/>
+      <c r="P113" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q113" s="2"/>
       <c r="R113" s="5"/>
       <c r="S113" s="5"/>
-      <c r="T113" s="2"/>
-      <c r="U113" s="5"/>
-      <c r="V113" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W113" s="4" t="s">
+      <c r="T113" s="5"/>
+      <c r="U113" s="2"/>
+      <c r="V113" s="5"/>
+      <c r="W113" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X113" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="X113" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y113" s="5" t="s">
         <v>46</v>
       </c>
       <c r="Z113" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AA113" s="5" t="s">
         <v>43</v>
       </c>
       <c r="AB113" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC113" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC113" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD113" s="5"/>
-      <c r="AE113" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF113" s="5"/>
+      <c r="AD113" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE113" s="5"/>
+      <c r="AF113" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG113" s="5"/>
-      <c r="AH113" s="2"/>
+      <c r="AH113" s="5"/>
+      <c r="AI113" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Arial"&amp;9&amp;K737373 Information Classification: Internal&amp;1#</oddHeader>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/src/data/covid19-data-responses.xlsx
+++ b/src/data/covid19-data-responses.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghodam2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\_00_Amardip_G\35_Personal\Local_Projects\COVID-19\dashboards\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C626978-A670-4090-86C8-241B6CC077BE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B28BA9-FF77-4620-AE87-5ED406BC531E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="404">
   <si>
     <t>ID</t>
   </si>
@@ -1234,6 +1234,9 @@
   </si>
   <si>
     <t>5 - 10</t>
+  </si>
+  <si>
+    <t>Do you have a kid(s)(&lt;5 years) or a senior citizen(s) staying with you in PUNE ?</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1292,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="35">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -1406,53 +1412,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AH113" totalsRowShown="0">
-  <autoFilter ref="A1:AH113" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="5  - 10"/>
-        <filter val="5 - 10"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="21">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="34">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Your Name" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Employee ID (e.g. HEDCI-123) (Please put ID number only in this case 123 )" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Your Team" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Work Experience (Approx. in Years)" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Designation" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Age (In Years)" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Gender" dataDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Where do you stay in PUNE ?" dataDxfId="21"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="How many members are currently staying along with you ?" dataDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Did you travel out of PUNE after 1st March ?" dataDxfId="19"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Specify the date of travel ?" dataDxfId="18"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Where did you travel out of PUNE ? (Please Select State / Out of India)" dataDxfId="17"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Specify City Name" dataDxfId="16"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Are you still staying at the same place?" dataDxfId="15"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="When did you travel back to PUNE ?" dataDxfId="14"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Which mode of transportation did you use to travel back to PUNE ?" dataDxfId="13"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Did you travel or stay at any Red Zone areas marked by the Government ? (Mention Below)" dataDxfId="12"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="What is the distance between office and place of residence ? (Approx. in KM )" dataDxfId="11"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Have you come in contact with any person who tested POSITIVE for COVID-19 (directly/indirectly) ?" dataDxfId="10"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Have you come in contact with anyone with a travel history (within India/ abroad) ?" dataDxfId="9"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Are any of the people you are living with, allowed to work under Government regulations ?( Ex: Govt. servants, Healthcare personnel etc)" dataDxfId="8"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Have you recently visited any healthcare facilities(Hospitals, Labs, etc) in last 30 days ?" dataDxfId="7"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Are you currently having any symptoms which are mentioned below ?" dataDxfId="6"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Any Pre-Existing Health Conditions ? (Medical History)" dataDxfId="5"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Please Specify if you have other disease" dataDxfId="4"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Have you been tested for COVID-19 ?" dataDxfId="3"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="What is the result of your Test ?" dataDxfId="2"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Have you Recovered from COVID-19 ?" dataDxfId="1"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="When did you Recover ?" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AI113" totalsRowShown="0">
+  <tableColumns count="35">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Your Name" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Employee ID (e.g. HEDCI-123) (Please put ID number only in this case 123 )" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Your Team" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Work Experience (Approx. in Years)" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Designation" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Age (In Years)" dataDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Gender" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Where do you stay in PUNE ?" dataDxfId="22"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="How many members are currently staying along with you ?" dataDxfId="21"/>
+    <tableColumn id="35" xr3:uid="{2D7B797A-D94D-48B3-84B5-3483DC35C0BB}" name="Do you have a kid(s)(&lt;5 years) or a senior citizen(s) staying with you in PUNE ?" dataDxfId="0"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Did you travel out of PUNE after 1st March ?" dataDxfId="20"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Specify the date of travel ?" dataDxfId="19"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Where did you travel out of PUNE ? (Please Select State / Out of India)" dataDxfId="18"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Specify City Name" dataDxfId="17"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Are you still staying at the same place?" dataDxfId="16"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="When did you travel back to PUNE ?" dataDxfId="15"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Which mode of transportation did you use to travel back to PUNE ?" dataDxfId="14"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Did you travel or stay at any Red Zone areas marked by the Government ? (Mention Below)" dataDxfId="13"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="What is the distance between office and place of residence ? (Approx. in KM )" dataDxfId="12"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Have you come in contact with any person who tested POSITIVE for COVID-19 (directly/indirectly) ?" dataDxfId="11"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Have you come in contact with anyone with a travel history (within India/ abroad) ?" dataDxfId="10"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Are any of the people you are living with, allowed to work under Government regulations ?( Ex: Govt. servants, Healthcare personnel etc)" dataDxfId="9"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Have you recently visited any healthcare facilities(Hospitals, Labs, etc) in last 30 days ?" dataDxfId="8"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Are you currently having any symptoms which are mentioned below ?" dataDxfId="7"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Any Pre-Existing Health Conditions ? (Medical History)" dataDxfId="6"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Please Specify if you have other disease" dataDxfId="5"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Have you been tested for COVID-19 ?" dataDxfId="4"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="What is the result of your Test ?" dataDxfId="3"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Have you Recovered from COVID-19 ?" dataDxfId="2"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="When did you Recover ?" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1755,18 +1751,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH113"/>
+  <dimension ref="A1:AI113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="V114" sqref="V114"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="34" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" customWidth="1"/>
+    <col min="16" max="35" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1810,67 +1808,70 @@
         <v>13</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10</v>
       </c>
@@ -1914,33 +1915,33 @@
       <c r="O2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="2">
         <v>43904</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2" s="2">
+      <c r="T2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="2">
         <v>43975</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="W2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y2" s="5" t="s">
         <v>46</v>
       </c>
@@ -1951,20 +1952,23 @@
         <v>46</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF2" s="5"/>
+      <c r="AD2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG2" s="5"/>
-      <c r="AH2" s="2"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="2"/>
     </row>
-    <row r="3" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>11</v>
       </c>
@@ -2008,21 +2012,21 @@
       <c r="O3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="5"/>
+      <c r="P3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T3" s="5"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="5"/>
       <c r="W3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X3" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y3" s="5" t="s">
         <v>46</v>
       </c>
@@ -2033,20 +2037,23 @@
         <v>46</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF3" s="5"/>
+      <c r="AD3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG3" s="5"/>
-      <c r="AH3" s="2"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="2"/>
     </row>
-    <row r="4" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>13</v>
       </c>
@@ -2090,33 +2097,33 @@
       <c r="O4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="2">
         <v>43936</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="S4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T4" s="2">
+      <c r="T4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4" s="2">
         <v>43938</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="V4" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="W4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X4" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y4" s="5" t="s">
         <v>43</v>
       </c>
@@ -2127,26 +2134,29 @@
         <v>43</v>
       </c>
       <c r="AB4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AD4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AE4" s="5"/>
       <c r="AF4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AG4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH4" s="2">
+      <c r="AH4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI4" s="2">
         <v>43933</v>
       </c>
     </row>
-    <row r="5" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>16</v>
       </c>
@@ -2190,21 +2200,21 @@
       <c r="O5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="5"/>
+      <c r="P5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T5" s="5"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="5"/>
       <c r="W5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="X5" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y5" s="5" t="s">
         <v>43</v>
       </c>
@@ -2212,27 +2222,30 @@
         <v>43</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AD5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE5" s="5"/>
       <c r="AF5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AG5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH5" s="2"/>
+      <c r="AH5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI5" s="2"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>18</v>
       </c>
@@ -2276,53 +2289,56 @@
       <c r="O6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="2">
         <v>43930</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="R6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="S6" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="S6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W6" s="4" t="s">
+      <c r="T6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" s="2"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X6" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X6" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y6" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Z6" s="5" t="s">
         <v>43</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AB6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF6" s="5"/>
+      <c r="AD6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG6" s="5"/>
-      <c r="AH6" s="2"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>22</v>
       </c>
@@ -2366,49 +2382,52 @@
       <c r="O7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="5"/>
+      <c r="P7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T7" s="5"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="5"/>
       <c r="W7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="X7" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y7" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC7" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AC7" s="5" t="s">
+      <c r="AD7" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AE7" s="5"/>
       <c r="AF7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AG7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH7" s="2"/>
+      <c r="AH7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>25</v>
       </c>
@@ -2452,45 +2471,48 @@
       <c r="O8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="5"/>
+      <c r="P8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W8" s="4" t="s">
+      <c r="T8" s="5"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X8" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X8" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y8" s="5" t="s">
         <v>46</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AA8" s="5" t="s">
         <v>43</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF8" s="5"/>
+      <c r="AD8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG8" s="5"/>
-      <c r="AH8" s="2"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="2"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>26</v>
       </c>
@@ -2534,29 +2556,29 @@
       <c r="O9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" s="2">
         <v>43929</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="R9" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="S9" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T9" s="2"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W9" s="4" t="s">
+      <c r="T9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" s="2"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X9" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X9" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y9" s="5" t="s">
         <v>46</v>
       </c>
@@ -2567,20 +2589,23 @@
         <v>46</v>
       </c>
       <c r="AB9" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF9" s="5"/>
+      <c r="AD9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG9" s="5"/>
-      <c r="AH9" s="2"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="2"/>
     </row>
-    <row r="10" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>28</v>
       </c>
@@ -2624,45 +2649,48 @@
       <c r="O10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="5"/>
+      <c r="P10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T10" s="5"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="5"/>
       <c r="W10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X10" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X10" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y10" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD10" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG10" s="5"/>
-      <c r="AH10" s="2"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="2"/>
     </row>
-    <row r="11" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>29</v>
       </c>
@@ -2706,47 +2734,50 @@
       <c r="O11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="5"/>
+      <c r="P11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T11" s="5"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="5"/>
       <c r="W11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X11" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X11" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y11" s="5" t="s">
         <v>46</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AA11" s="5" t="s">
         <v>43</v>
       </c>
       <c r="AB11" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AD11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE11" s="5"/>
       <c r="AF11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG11" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="2"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="2"/>
     </row>
-    <row r="12" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>30</v>
       </c>
@@ -2790,21 +2821,21 @@
       <c r="O12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="5"/>
+      <c r="P12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W12" s="4" t="s">
+      <c r="T12" s="5"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X12" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X12" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y12" s="5" t="s">
         <v>46</v>
       </c>
@@ -2812,25 +2843,28 @@
         <v>46</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB12" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AD12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE12" s="5"/>
       <c r="AF12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG12" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="2"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="2"/>
     </row>
-    <row r="13" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>32</v>
       </c>
@@ -2874,45 +2908,48 @@
       <c r="O13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="5"/>
+      <c r="P13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T13" s="5"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="5"/>
       <c r="W13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X13" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="X13" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y13" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA13" s="5" t="s">
         <v>46</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF13" s="5"/>
+      <c r="AD13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG13" s="5"/>
-      <c r="AH13" s="2"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="2"/>
     </row>
-    <row r="14" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>38</v>
       </c>
@@ -2956,33 +2993,33 @@
       <c r="O14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" s="2">
         <v>43931</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="R14" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="S14" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="S14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T14" s="2">
+      <c r="T14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U14" s="2">
         <v>43930</v>
       </c>
-      <c r="U14" s="5" t="s">
+      <c r="V14" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="V14" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="W14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X14" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X14" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y14" s="5" t="s">
         <v>43</v>
       </c>
@@ -2993,26 +3030,29 @@
         <v>43</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AD14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE14" s="5"/>
       <c r="AF14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AG14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH14" s="2">
+      <c r="AH14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI14" s="2">
         <v>43937</v>
       </c>
     </row>
-    <row r="15" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>41</v>
       </c>
@@ -3056,21 +3096,21 @@
       <c r="O15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="5"/>
+      <c r="P15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T15" s="5"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="5"/>
       <c r="W15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X15" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X15" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y15" s="5" t="s">
         <v>43</v>
       </c>
@@ -3081,24 +3121,27 @@
         <v>43</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AD15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE15" s="5"/>
       <c r="AF15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AG15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH15" s="2"/>
+      <c r="AH15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI15" s="2"/>
     </row>
-    <row r="16" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>44</v>
       </c>
@@ -3142,21 +3185,21 @@
       <c r="O16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="5"/>
+      <c r="P16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T16" s="5"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="5"/>
       <c r="W16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X16" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X16" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y16" s="5" t="s">
         <v>46</v>
       </c>
@@ -3164,25 +3207,28 @@
         <v>46</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AD16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE16" s="5"/>
       <c r="AF16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG16" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="2"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="2"/>
     </row>
-    <row r="17" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>45</v>
       </c>
@@ -3226,33 +3272,33 @@
       <c r="O17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q17" s="2">
         <v>43938</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="R17" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="R17" s="5" t="s">
+      <c r="S17" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="S17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T17" s="2">
+      <c r="T17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U17" s="2">
         <v>43946</v>
       </c>
-      <c r="U17" s="5" t="s">
+      <c r="V17" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="V17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W17" s="4" t="s">
+      <c r="W17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X17" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X17" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y17" s="5" t="s">
         <v>43</v>
       </c>
@@ -3263,26 +3309,29 @@
         <v>43</v>
       </c>
       <c r="AB17" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AD17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE17" s="5"/>
       <c r="AF17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AG17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH17" s="2">
+      <c r="AH17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI17" s="2">
         <v>43938</v>
       </c>
     </row>
-    <row r="18" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>46</v>
       </c>
@@ -3326,47 +3375,50 @@
       <c r="O18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="5"/>
+      <c r="P18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T18" s="5"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="5"/>
       <c r="W18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X18" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X18" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y18" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z18" s="5" t="s">
         <v>46</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB18" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AD18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE18" s="5"/>
       <c r="AF18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG18" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="2"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="2"/>
     </row>
-    <row r="19" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>47</v>
       </c>
@@ -3410,59 +3462,62 @@
       <c r="O19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q19" s="2">
         <v>43937</v>
       </c>
-      <c r="Q19" s="5" t="s">
+      <c r="R19" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="S19" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="S19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T19" s="2"/>
-      <c r="U19" s="5"/>
+      <c r="T19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U19" s="2"/>
       <c r="V19" s="5"/>
-      <c r="W19" s="4" t="s">
+      <c r="W19" s="5"/>
+      <c r="X19" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X19" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y19" s="5" t="s">
         <v>43</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC19" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AC19" s="5" t="s">
+      <c r="AD19" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AD19" s="5" t="s">
+      <c r="AE19" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="AE19" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="AF19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AG19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH19" s="2">
+      <c r="AH19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI19" s="2">
         <v>43951</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>48</v>
       </c>
@@ -3506,29 +3561,29 @@
       <c r="O20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q20" s="2">
         <v>43911</v>
       </c>
-      <c r="Q20" s="5" t="s">
+      <c r="R20" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="R20" s="5" t="s">
+      <c r="S20" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="S20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T20" s="2"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U20" s="2"/>
+      <c r="V20" s="5"/>
       <c r="W20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X20" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="X20" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y20" s="5" t="s">
         <v>46</v>
       </c>
@@ -3539,20 +3594,23 @@
         <v>46</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF20" s="5"/>
+      <c r="AD20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG20" s="5"/>
-      <c r="AH20" s="2"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="2"/>
     </row>
-    <row r="21" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>50</v>
       </c>
@@ -3596,45 +3654,48 @@
       <c r="O21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="5"/>
+      <c r="P21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T21" s="5"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="5"/>
       <c r="W21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X21" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X21" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y21" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA21" s="5" t="s">
         <v>46</v>
       </c>
       <c r="AB21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC21" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AC21" s="5" t="s">
+      <c r="AD21" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG21" s="5"/>
-      <c r="AH21" s="2"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="2"/>
     </row>
-    <row r="22" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>51</v>
       </c>
@@ -3678,49 +3739,52 @@
       <c r="O22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="5"/>
+      <c r="P22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T22" s="5"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="5"/>
       <c r="W22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="X22" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y22" s="5" t="s">
         <v>46</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AB22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC22" s="5" t="s">
+      <c r="AD22" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AE22" s="5"/>
       <c r="AF22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AG22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH22" s="2"/>
+      <c r="AH22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI22" s="2"/>
     </row>
-    <row r="23" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>52</v>
       </c>
@@ -3764,21 +3828,21 @@
       <c r="O23" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="5"/>
+      <c r="P23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T23" s="5"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="5"/>
       <c r="W23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X23" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="X23" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y23" s="5" t="s">
         <v>46</v>
       </c>
@@ -3789,26 +3853,29 @@
         <v>46</v>
       </c>
       <c r="AB23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC23" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AC23" s="5" t="s">
+      <c r="AD23" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AE23" s="5"/>
       <c r="AF23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG23" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AG23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH23" s="2">
+      <c r="AH23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI23" s="2">
         <v>43928</v>
       </c>
     </row>
-    <row r="24" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>55</v>
       </c>
@@ -3852,45 +3919,48 @@
       <c r="O24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="5"/>
+      <c r="P24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W24" s="4" t="s">
+      <c r="T24" s="5"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X24" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X24" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y24" s="5" t="s">
         <v>46</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AA24" s="5" t="s">
         <v>43</v>
       </c>
       <c r="AB24" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD24" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG24" s="5"/>
-      <c r="AH24" s="2"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="2"/>
     </row>
-    <row r="25" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>58</v>
       </c>
@@ -3934,23 +4004,23 @@
       <c r="O25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="5"/>
+      <c r="P25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W25" s="4" t="s">
+      <c r="T25" s="5"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X25" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X25" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y25" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>46</v>
@@ -3959,22 +4029,25 @@
         <v>46</v>
       </c>
       <c r="AB25" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AD25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE25" s="5"/>
       <c r="AF25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG25" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="2"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="2"/>
     </row>
-    <row r="26" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>60</v>
       </c>
@@ -4018,21 +4091,21 @@
       <c r="O26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="5"/>
+      <c r="P26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W26" s="4" t="s">
+      <c r="T26" s="5"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X26" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X26" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y26" s="5" t="s">
         <v>46</v>
       </c>
@@ -4040,23 +4113,26 @@
         <v>46</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB26" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC26" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF26" s="5"/>
+      <c r="AD26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG26" s="5"/>
-      <c r="AH26" s="2"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="2"/>
     </row>
-    <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>63</v>
       </c>
@@ -4100,21 +4176,21 @@
       <c r="O27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="5"/>
+      <c r="P27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T27" s="5"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="5"/>
       <c r="W27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X27" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="X27" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y27" s="5" t="s">
         <v>46</v>
       </c>
@@ -4125,20 +4201,23 @@
         <v>46</v>
       </c>
       <c r="AB27" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF27" s="5"/>
+      <c r="AD27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG27" s="5"/>
-      <c r="AH27" s="2"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>64</v>
       </c>
@@ -4182,21 +4261,21 @@
       <c r="O28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="5"/>
+      <c r="P28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T28" s="5"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="5"/>
       <c r="W28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X28" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X28" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y28" s="5" t="s">
         <v>46</v>
       </c>
@@ -4207,20 +4286,23 @@
         <v>46</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD28" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG28" s="5"/>
-      <c r="AH28" s="2"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="2"/>
     </row>
-    <row r="29" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>68</v>
       </c>
@@ -4264,21 +4346,21 @@
       <c r="O29" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="5"/>
+      <c r="P29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W29" s="4" t="s">
+      <c r="T29" s="5"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X29" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X29" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y29" s="5" t="s">
         <v>46</v>
       </c>
@@ -4289,26 +4371,29 @@
         <v>46</v>
       </c>
       <c r="AB29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC29" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="AC29" s="5" t="s">
+      <c r="AD29" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AE29" s="5"/>
       <c r="AF29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG29" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AG29" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH29" s="2">
+      <c r="AH29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI29" s="2">
         <v>43943</v>
       </c>
     </row>
-    <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>69</v>
       </c>
@@ -4352,51 +4437,54 @@
       <c r="O30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P30" s="2">
+      <c r="P30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q30" s="2">
         <v>43921</v>
       </c>
-      <c r="Q30" s="5" t="s">
+      <c r="R30" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="R30" s="5" t="s">
+      <c r="S30" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="S30" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T30" s="2"/>
-      <c r="U30" s="5"/>
+      <c r="T30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U30" s="2"/>
       <c r="V30" s="5"/>
-      <c r="W30" s="5" t="s">
+      <c r="W30" s="5"/>
+      <c r="X30" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="X30" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y30" s="5" t="s">
         <v>46</v>
       </c>
       <c r="Z30" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AA30" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AB30" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC30" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF30" s="5"/>
+      <c r="AD30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG30" s="5"/>
-      <c r="AH30" s="2"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>71</v>
       </c>
@@ -4440,21 +4528,21 @@
       <c r="O31" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="5"/>
+      <c r="P31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="2"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W31" s="4" t="s">
+      <c r="T31" s="5"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X31" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X31" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y31" s="5" t="s">
         <v>46</v>
       </c>
@@ -4465,20 +4553,23 @@
         <v>46</v>
       </c>
       <c r="AB31" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC31" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF31" s="5"/>
+      <c r="AD31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG31" s="5"/>
-      <c r="AH31" s="2"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>72</v>
       </c>
@@ -4522,49 +4613,52 @@
       <c r="O32" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="5"/>
+      <c r="P32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T32" s="5"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="5"/>
       <c r="W32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X32" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X32" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y32" s="5" t="s">
         <v>46</v>
       </c>
       <c r="Z32" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AA32" s="5" t="s">
         <v>43</v>
       </c>
       <c r="AB32" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD32" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AD32" s="5"/>
-      <c r="AE32" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AE32" s="5"/>
       <c r="AF32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG32" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AG32" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH32" s="2"/>
+      <c r="AH32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>73</v>
       </c>
@@ -4608,33 +4702,33 @@
       <c r="O33" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P33" s="2">
+      <c r="P33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q33" s="2">
         <v>43922</v>
       </c>
-      <c r="Q33" s="5" t="s">
+      <c r="R33" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="R33" s="5" t="s">
+      <c r="S33" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="S33" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T33" s="2">
+      <c r="T33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U33" s="2">
         <v>43942</v>
       </c>
-      <c r="U33" s="5" t="s">
+      <c r="V33" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="V33" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="W33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X33" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X33" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y33" s="5" t="s">
         <v>46</v>
       </c>
@@ -4645,20 +4739,23 @@
         <v>46</v>
       </c>
       <c r="AB33" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC33" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF33" s="5"/>
+      <c r="AD33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG33" s="5"/>
-      <c r="AH33" s="2"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>75</v>
       </c>
@@ -4702,21 +4799,21 @@
       <c r="O34" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="5"/>
+      <c r="P34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q34" s="2"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T34" s="5"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="5"/>
       <c r="W34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="X34" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y34" s="5" t="s">
         <v>46</v>
       </c>
@@ -4727,20 +4824,23 @@
         <v>46</v>
       </c>
       <c r="AB34" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC34" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF34" s="5"/>
+      <c r="AD34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG34" s="5"/>
-      <c r="AH34" s="2"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>77</v>
       </c>
@@ -4784,45 +4884,48 @@
       <c r="O35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="5"/>
+      <c r="P35" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="2"/>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T35" s="5"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="5"/>
       <c r="W35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X35" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X35" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y35" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z35" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AA35" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AB35" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC35" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD35" s="5"/>
-      <c r="AE35" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF35" s="5"/>
+      <c r="AD35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG35" s="5"/>
-      <c r="AH35" s="2"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="2"/>
     </row>
-    <row r="36" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>79</v>
       </c>
@@ -4866,23 +4969,23 @@
       <c r="O36" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="5"/>
+      <c r="P36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q36" s="2"/>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T36" s="5"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="5"/>
       <c r="W36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X36" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X36" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y36" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z36" s="5" t="s">
         <v>46</v>
@@ -4891,22 +4994,25 @@
         <v>46</v>
       </c>
       <c r="AB36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC36" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="AC36" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD36" s="5"/>
-      <c r="AE36" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AD36" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE36" s="5"/>
       <c r="AF36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG36" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AG36" s="5"/>
-      <c r="AH36" s="2"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>82</v>
       </c>
@@ -4950,47 +5056,50 @@
       <c r="O37" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="5"/>
+      <c r="P37" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q37" s="2"/>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W37" s="4" t="s">
+      <c r="T37" s="5"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X37" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="X37" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y37" s="5" t="s">
         <v>46</v>
       </c>
       <c r="Z37" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AA37" s="5" t="s">
         <v>43</v>
       </c>
       <c r="AB37" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD37" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="AD37" s="5"/>
-      <c r="AE37" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AE37" s="5"/>
       <c r="AF37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG37" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AG37" s="5"/>
-      <c r="AH37" s="2"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="2"/>
     </row>
-    <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>83</v>
       </c>
@@ -5034,53 +5143,56 @@
       <c r="O38" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P38" s="2">
+      <c r="P38" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q38" s="2">
         <v>43922</v>
       </c>
-      <c r="Q38" s="5" t="s">
+      <c r="R38" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="R38" s="5" t="s">
+      <c r="S38" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="S38" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T38" s="2"/>
-      <c r="U38" s="5"/>
+      <c r="T38" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U38" s="2"/>
       <c r="V38" s="5"/>
-      <c r="W38" s="4" t="s">
+      <c r="W38" s="5"/>
+      <c r="X38" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X38" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y38" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z38" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AA38" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AB38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC38" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC38" s="5" t="s">
+      <c r="AD38" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AD38" s="5" t="s">
+      <c r="AE38" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="AE38" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF38" s="5"/>
+      <c r="AF38" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG38" s="5"/>
-      <c r="AH38" s="2"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="2"/>
     </row>
-    <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>84</v>
       </c>
@@ -5124,35 +5236,35 @@
       <c r="O39" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P39" s="2">
+      <c r="P39" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q39" s="2">
         <v>43922</v>
       </c>
-      <c r="Q39" s="5" t="s">
+      <c r="R39" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="R39" s="5" t="s">
+      <c r="S39" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="S39" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T39" s="2">
+      <c r="T39" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U39" s="2">
         <v>43945</v>
       </c>
-      <c r="U39" s="5" t="s">
+      <c r="V39" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="V39" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W39" s="4" t="s">
+      <c r="W39" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X39" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X39" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y39" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z39" s="5" t="s">
         <v>46</v>
@@ -5161,20 +5273,23 @@
         <v>46</v>
       </c>
       <c r="AB39" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC39" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD39" s="5"/>
-      <c r="AE39" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF39" s="5"/>
+      <c r="AD39" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG39" s="5"/>
-      <c r="AH39" s="2"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="2"/>
     </row>
-    <row r="40" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>85</v>
       </c>
@@ -5218,21 +5333,21 @@
       <c r="O40" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="5"/>
+      <c r="P40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q40" s="2"/>
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W40" s="4" t="s">
+      <c r="T40" s="5"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X40" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X40" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y40" s="5" t="s">
         <v>46</v>
       </c>
@@ -5240,23 +5355,26 @@
         <v>46</v>
       </c>
       <c r="AA40" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB40" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC40" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD40" s="5"/>
-      <c r="AE40" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF40" s="5"/>
+      <c r="AD40" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG40" s="5"/>
-      <c r="AH40" s="2"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="2"/>
     </row>
-    <row r="41" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>87</v>
       </c>
@@ -5300,21 +5418,21 @@
       <c r="O41" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="5"/>
+      <c r="P41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q41" s="2"/>
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W41" s="4" t="s">
+      <c r="T41" s="5"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X41" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X41" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y41" s="5" t="s">
         <v>46</v>
       </c>
@@ -5325,20 +5443,23 @@
         <v>46</v>
       </c>
       <c r="AB41" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC41" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF41" s="5"/>
+      <c r="AD41" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG41" s="5"/>
-      <c r="AH41" s="2"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="2"/>
     </row>
-    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>88</v>
       </c>
@@ -5382,51 +5503,54 @@
       <c r="O42" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="5"/>
+      <c r="P42" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q42" s="2"/>
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W42" s="4" t="s">
+      <c r="T42" s="5"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X42" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X42" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y42" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z42" s="5" t="s">
         <v>46</v>
       </c>
       <c r="AA42" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC42" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="AC42" s="5" t="s">
+      <c r="AD42" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD42" s="5"/>
-      <c r="AE42" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AE42" s="5"/>
       <c r="AF42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG42" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AG42" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH42" s="2">
+      <c r="AH42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI42" s="2">
         <v>43936</v>
       </c>
     </row>
-    <row r="43" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>91</v>
       </c>
@@ -5470,45 +5594,48 @@
       <c r="O43" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="5"/>
+      <c r="P43" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q43" s="2"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T43" s="5"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="5"/>
       <c r="W43" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X43" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="X43" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y43" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z43" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AA43" s="5" t="s">
         <v>43</v>
       </c>
       <c r="AB43" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC43" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AC43" s="5" t="s">
+      <c r="AD43" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD43" s="5"/>
-      <c r="AE43" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG43" s="5"/>
-      <c r="AH43" s="2"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="2"/>
     </row>
-    <row r="44" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>93</v>
       </c>
@@ -5552,45 +5679,48 @@
       <c r="O44" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="5"/>
+      <c r="P44" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q44" s="2"/>
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T44" s="5"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="5"/>
       <c r="W44" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X44" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="X44" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y44" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z44" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AA44" s="5" t="s">
         <v>43</v>
       </c>
       <c r="AB44" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC44" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD44" s="5"/>
-      <c r="AE44" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF44" s="5"/>
+      <c r="AD44" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG44" s="5"/>
-      <c r="AH44" s="2"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="2"/>
     </row>
-    <row r="45" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>95</v>
       </c>
@@ -5634,21 +5764,21 @@
       <c r="O45" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="5"/>
+      <c r="P45" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q45" s="2"/>
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W45" s="4" t="s">
+      <c r="T45" s="5"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X45" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X45" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y45" s="5" t="s">
         <v>46</v>
       </c>
@@ -5656,23 +5786,26 @@
         <v>46</v>
       </c>
       <c r="AA45" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB45" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC45" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="AC45" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD45" s="5"/>
-      <c r="AE45" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF45" s="5"/>
+      <c r="AD45" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG45" s="5"/>
-      <c r="AH45" s="2"/>
+      <c r="AH45" s="5"/>
+      <c r="AI45" s="2"/>
     </row>
-    <row r="46" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>96</v>
       </c>
@@ -5716,33 +5849,33 @@
       <c r="O46" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P46" s="2">
+      <c r="P46" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q46" s="2">
         <v>43928</v>
       </c>
-      <c r="Q46" s="5" t="s">
+      <c r="R46" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="R46" s="5" t="s">
+      <c r="S46" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="S46" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T46" s="2">
+      <c r="T46" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U46" s="2">
         <v>43972</v>
       </c>
-      <c r="U46" s="5" t="s">
+      <c r="V46" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="V46" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W46" s="4" t="s">
+      <c r="W46" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X46" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X46" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y46" s="5" t="s">
         <v>46</v>
       </c>
@@ -5753,20 +5886,23 @@
         <v>46</v>
       </c>
       <c r="AB46" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC46" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AC46" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD46" s="5"/>
-      <c r="AE46" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF46" s="5"/>
+      <c r="AD46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG46" s="5"/>
-      <c r="AH46" s="2"/>
+      <c r="AH46" s="5"/>
+      <c r="AI46" s="2"/>
     </row>
-    <row r="47" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>98</v>
       </c>
@@ -5810,23 +5946,23 @@
       <c r="O47" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="5"/>
+      <c r="P47" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q47" s="2"/>
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T47" s="5"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="5"/>
       <c r="W47" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X47" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X47" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y47" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Z47" s="5" t="s">
         <v>43</v>
@@ -5835,20 +5971,23 @@
         <v>43</v>
       </c>
       <c r="AB47" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC47" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="AC47" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD47" s="5"/>
-      <c r="AE47" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF47" s="5"/>
+      <c r="AD47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG47" s="5"/>
-      <c r="AH47" s="2"/>
+      <c r="AH47" s="5"/>
+      <c r="AI47" s="2"/>
     </row>
-    <row r="48" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>100</v>
       </c>
@@ -5892,51 +6031,54 @@
       <c r="O48" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="5"/>
+      <c r="P48" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q48" s="2"/>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W48" s="4" t="s">
+      <c r="T48" s="5"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X48" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X48" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y48" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z48" s="5" t="s">
         <v>46</v>
       </c>
       <c r="AA48" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB48" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC48" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AC48" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD48" s="5"/>
-      <c r="AE48" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AD48" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE48" s="5"/>
       <c r="AF48" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG48" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AG48" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH48" s="2">
+      <c r="AH48" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI48" s="2">
         <v>43927</v>
       </c>
     </row>
-    <row r="49" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>105</v>
       </c>
@@ -5980,21 +6122,21 @@
       <c r="O49" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="5"/>
+      <c r="P49" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q49" s="2"/>
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T49" s="5"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="5"/>
       <c r="W49" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X49" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="X49" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y49" s="5" t="s">
         <v>46</v>
       </c>
@@ -6005,20 +6147,23 @@
         <v>46</v>
       </c>
       <c r="AB49" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC49" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD49" s="5"/>
-      <c r="AE49" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF49" s="5"/>
+      <c r="AD49" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG49" s="5"/>
-      <c r="AH49" s="2"/>
+      <c r="AH49" s="5"/>
+      <c r="AI49" s="2"/>
     </row>
-    <row r="50" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>107</v>
       </c>
@@ -6062,21 +6207,21 @@
       <c r="O50" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="5"/>
+      <c r="P50" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q50" s="2"/>
       <c r="R50" s="5"/>
       <c r="S50" s="5"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W50" s="4" t="s">
+      <c r="T50" s="5"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X50" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="X50" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y50" s="5" t="s">
         <v>46</v>
       </c>
@@ -6087,20 +6232,23 @@
         <v>46</v>
       </c>
       <c r="AB50" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC50" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD50" s="5"/>
-      <c r="AE50" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF50" s="5"/>
+      <c r="AD50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG50" s="5"/>
-      <c r="AH50" s="2"/>
+      <c r="AH50" s="5"/>
+      <c r="AI50" s="2"/>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>111</v>
       </c>
@@ -6144,29 +6292,29 @@
       <c r="O51" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P51" s="2">
+      <c r="P51" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q51" s="2">
         <v>43938</v>
       </c>
-      <c r="Q51" s="5" t="s">
+      <c r="R51" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="R51" s="5" t="s">
+      <c r="S51" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="S51" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T51" s="2"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W51" s="4" t="s">
+      <c r="T51" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U51" s="2"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X51" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="X51" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y51" s="5" t="s">
         <v>46</v>
       </c>
@@ -6177,20 +6325,23 @@
         <v>46</v>
       </c>
       <c r="AB51" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC51" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD51" s="5"/>
-      <c r="AE51" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF51" s="5"/>
+      <c r="AD51" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG51" s="5"/>
-      <c r="AH51" s="2"/>
+      <c r="AH51" s="5"/>
+      <c r="AI51" s="2"/>
     </row>
-    <row r="52" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>116</v>
       </c>
@@ -6234,21 +6385,21 @@
       <c r="O52" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="5"/>
+      <c r="P52" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q52" s="2"/>
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T52" s="5"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="5"/>
       <c r="W52" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X52" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X52" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y52" s="5" t="s">
         <v>46</v>
       </c>
@@ -6259,20 +6410,23 @@
         <v>46</v>
       </c>
       <c r="AB52" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC52" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD52" s="5"/>
-      <c r="AE52" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF52" s="5"/>
+      <c r="AD52" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG52" s="5"/>
-      <c r="AH52" s="2"/>
+      <c r="AH52" s="5"/>
+      <c r="AI52" s="2"/>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>117</v>
       </c>
@@ -6316,29 +6470,29 @@
       <c r="O53" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P53" s="2">
+      <c r="P53" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q53" s="2">
         <v>43911</v>
       </c>
-      <c r="Q53" s="5" t="s">
+      <c r="R53" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="R53" s="5" t="s">
+      <c r="S53" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="S53" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T53" s="2"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W53" s="4" t="s">
+      <c r="T53" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U53" s="2"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X53" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X53" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y53" s="5" t="s">
         <v>46</v>
       </c>
@@ -6349,20 +6503,23 @@
         <v>46</v>
       </c>
       <c r="AB53" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC53" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD53" s="5"/>
-      <c r="AE53" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF53" s="5"/>
+      <c r="AD53" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG53" s="5"/>
-      <c r="AH53" s="2"/>
+      <c r="AH53" s="5"/>
+      <c r="AI53" s="2"/>
     </row>
-    <row r="54" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>118</v>
       </c>
@@ -6406,21 +6563,21 @@
       <c r="O54" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="5"/>
+      <c r="P54" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q54" s="2"/>
       <c r="R54" s="5"/>
       <c r="S54" s="5"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T54" s="5"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="5"/>
       <c r="W54" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X54" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X54" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y54" s="5" t="s">
         <v>46</v>
       </c>
@@ -6431,20 +6588,23 @@
         <v>46</v>
       </c>
       <c r="AB54" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC54" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD54" s="5"/>
-      <c r="AE54" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF54" s="5"/>
+      <c r="AD54" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG54" s="5"/>
-      <c r="AH54" s="2"/>
+      <c r="AH54" s="5"/>
+      <c r="AI54" s="2"/>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>119</v>
       </c>
@@ -6488,29 +6648,29 @@
       <c r="O55" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P55" s="2">
+      <c r="P55" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q55" s="2">
         <v>43911</v>
       </c>
-      <c r="Q55" s="5" t="s">
+      <c r="R55" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="R55" s="5" t="s">
+      <c r="S55" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="S55" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T55" s="2"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W55" s="4" t="s">
+      <c r="T55" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U55" s="2"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X55" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X55" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y55" s="5" t="s">
         <v>46</v>
       </c>
@@ -6521,20 +6681,23 @@
         <v>46</v>
       </c>
       <c r="AB55" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC55" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD55" s="5"/>
-      <c r="AE55" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF55" s="5"/>
+      <c r="AD55" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG55" s="5"/>
-      <c r="AH55" s="2"/>
+      <c r="AH55" s="5"/>
+      <c r="AI55" s="2"/>
     </row>
-    <row r="56" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>121</v>
       </c>
@@ -6578,21 +6741,21 @@
       <c r="O56" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="5"/>
+      <c r="P56" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q56" s="2"/>
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
-      <c r="T56" s="2"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T56" s="5"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="5"/>
       <c r="W56" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X56" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X56" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y56" s="5" t="s">
         <v>46</v>
       </c>
@@ -6603,20 +6766,23 @@
         <v>46</v>
       </c>
       <c r="AB56" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC56" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD56" s="5"/>
-      <c r="AE56" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF56" s="5"/>
+      <c r="AD56" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG56" s="5"/>
-      <c r="AH56" s="2"/>
+      <c r="AH56" s="5"/>
+      <c r="AI56" s="2"/>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>122</v>
       </c>
@@ -6660,29 +6826,29 @@
       <c r="O57" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P57" s="2">
+      <c r="P57" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q57" s="2">
         <v>43911</v>
       </c>
-      <c r="Q57" s="5" t="s">
+      <c r="R57" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="R57" s="5" t="s">
+      <c r="S57" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="S57" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T57" s="2"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W57" s="4" t="s">
+      <c r="T57" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U57" s="2"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X57" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X57" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y57" s="5" t="s">
         <v>46</v>
       </c>
@@ -6693,20 +6859,23 @@
         <v>46</v>
       </c>
       <c r="AB57" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC57" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD57" s="5"/>
-      <c r="AE57" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF57" s="5"/>
+      <c r="AD57" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG57" s="5"/>
-      <c r="AH57" s="2"/>
+      <c r="AH57" s="5"/>
+      <c r="AI57" s="2"/>
     </row>
-    <row r="58" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>124</v>
       </c>
@@ -6750,21 +6919,21 @@
       <c r="O58" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="5"/>
+      <c r="P58" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q58" s="2"/>
       <c r="R58" s="5"/>
       <c r="S58" s="5"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T58" s="5"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="5"/>
       <c r="W58" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X58" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X58" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y58" s="5" t="s">
         <v>46</v>
       </c>
@@ -6775,20 +6944,23 @@
         <v>46</v>
       </c>
       <c r="AB58" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC58" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD58" s="5"/>
-      <c r="AE58" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF58" s="5"/>
+      <c r="AD58" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG58" s="5"/>
-      <c r="AH58" s="2"/>
+      <c r="AH58" s="5"/>
+      <c r="AI58" s="2"/>
     </row>
-    <row r="59" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>125</v>
       </c>
@@ -6832,21 +7004,21 @@
       <c r="O59" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="5"/>
+      <c r="P59" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q59" s="2"/>
       <c r="R59" s="5"/>
       <c r="S59" s="5"/>
-      <c r="T59" s="2"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T59" s="5"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="5"/>
       <c r="W59" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X59" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X59" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y59" s="5" t="s">
         <v>46</v>
       </c>
@@ -6857,20 +7029,23 @@
         <v>46</v>
       </c>
       <c r="AB59" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC59" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD59" s="5"/>
-      <c r="AE59" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF59" s="5"/>
+      <c r="AD59" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE59" s="5"/>
+      <c r="AF59" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG59" s="5"/>
-      <c r="AH59" s="2"/>
+      <c r="AH59" s="5"/>
+      <c r="AI59" s="2"/>
     </row>
-    <row r="60" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>126</v>
       </c>
@@ -6914,21 +7089,21 @@
       <c r="O60" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="5"/>
+      <c r="P60" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q60" s="2"/>
       <c r="R60" s="5"/>
       <c r="S60" s="5"/>
-      <c r="T60" s="2"/>
-      <c r="U60" s="5"/>
-      <c r="V60" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T60" s="5"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="5"/>
       <c r="W60" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X60" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X60" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y60" s="5" t="s">
         <v>46</v>
       </c>
@@ -6939,20 +7114,23 @@
         <v>46</v>
       </c>
       <c r="AB60" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC60" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD60" s="5"/>
-      <c r="AE60" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF60" s="5"/>
+      <c r="AD60" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG60" s="5"/>
-      <c r="AH60" s="2"/>
+      <c r="AH60" s="5"/>
+      <c r="AI60" s="2"/>
     </row>
-    <row r="61" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>127</v>
       </c>
@@ -6996,21 +7174,21 @@
       <c r="O61" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="5"/>
+      <c r="P61" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q61" s="2"/>
       <c r="R61" s="5"/>
       <c r="S61" s="5"/>
-      <c r="T61" s="2"/>
-      <c r="U61" s="5"/>
-      <c r="V61" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T61" s="5"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="5"/>
       <c r="W61" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X61" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X61" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y61" s="5" t="s">
         <v>46</v>
       </c>
@@ -7021,20 +7199,23 @@
         <v>46</v>
       </c>
       <c r="AB61" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC61" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD61" s="5"/>
-      <c r="AE61" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF61" s="5"/>
+      <c r="AD61" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE61" s="5"/>
+      <c r="AF61" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG61" s="5"/>
-      <c r="AH61" s="2"/>
+      <c r="AH61" s="5"/>
+      <c r="AI61" s="2"/>
     </row>
-    <row r="62" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>128</v>
       </c>
@@ -7078,21 +7259,21 @@
       <c r="O62" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="5"/>
+      <c r="P62" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q62" s="2"/>
       <c r="R62" s="5"/>
       <c r="S62" s="5"/>
-      <c r="T62" s="2"/>
-      <c r="U62" s="5"/>
-      <c r="V62" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W62" s="4" t="s">
+      <c r="T62" s="5"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X62" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X62" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y62" s="5" t="s">
         <v>46</v>
       </c>
@@ -7103,20 +7284,23 @@
         <v>46</v>
       </c>
       <c r="AB62" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC62" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD62" s="5"/>
-      <c r="AE62" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF62" s="5"/>
+      <c r="AD62" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE62" s="5"/>
+      <c r="AF62" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG62" s="5"/>
-      <c r="AH62" s="2"/>
+      <c r="AH62" s="5"/>
+      <c r="AI62" s="2"/>
     </row>
-    <row r="63" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>131</v>
       </c>
@@ -7160,21 +7344,21 @@
       <c r="O63" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="5"/>
+      <c r="P63" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q63" s="2"/>
       <c r="R63" s="5"/>
       <c r="S63" s="5"/>
-      <c r="T63" s="2"/>
-      <c r="U63" s="5"/>
-      <c r="V63" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W63" s="4" t="s">
+      <c r="T63" s="5"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X63" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="X63" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y63" s="5" t="s">
         <v>46</v>
       </c>
@@ -7185,20 +7369,23 @@
         <v>46</v>
       </c>
       <c r="AB63" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC63" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD63" s="5"/>
-      <c r="AE63" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF63" s="5"/>
+      <c r="AD63" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE63" s="5"/>
+      <c r="AF63" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG63" s="5"/>
-      <c r="AH63" s="2"/>
+      <c r="AH63" s="5"/>
+      <c r="AI63" s="2"/>
     </row>
-    <row r="64" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>132</v>
       </c>
@@ -7242,21 +7429,21 @@
       <c r="O64" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="5"/>
+      <c r="P64" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q64" s="2"/>
       <c r="R64" s="5"/>
       <c r="S64" s="5"/>
-      <c r="T64" s="2"/>
-      <c r="U64" s="5"/>
-      <c r="V64" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W64" s="4" t="s">
+      <c r="T64" s="5"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X64" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="X64" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y64" s="5" t="s">
         <v>46</v>
       </c>
@@ -7267,20 +7454,23 @@
         <v>46</v>
       </c>
       <c r="AB64" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC64" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AC64" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD64" s="5"/>
-      <c r="AE64" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF64" s="5"/>
+      <c r="AD64" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE64" s="5"/>
+      <c r="AF64" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG64" s="5"/>
-      <c r="AH64" s="2"/>
+      <c r="AH64" s="5"/>
+      <c r="AI64" s="2"/>
     </row>
-    <row r="65" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>134</v>
       </c>
@@ -7324,45 +7514,48 @@
       <c r="O65" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="5"/>
+      <c r="P65" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q65" s="2"/>
       <c r="R65" s="5"/>
       <c r="S65" s="5"/>
-      <c r="T65" s="2"/>
-      <c r="U65" s="5"/>
-      <c r="V65" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T65" s="5"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="5"/>
       <c r="W65" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X65" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="X65" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y65" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Z65" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA65" s="5" t="s">
         <v>46</v>
       </c>
       <c r="AB65" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC65" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC65" s="5" t="s">
+      <c r="AD65" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AD65" s="5"/>
-      <c r="AE65" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF65" s="5"/>
+      <c r="AE65" s="5"/>
+      <c r="AF65" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG65" s="5"/>
-      <c r="AH65" s="2"/>
+      <c r="AH65" s="5"/>
+      <c r="AI65" s="2"/>
     </row>
-    <row r="66" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>135</v>
       </c>
@@ -7406,21 +7599,21 @@
       <c r="O66" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="5"/>
+      <c r="P66" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q66" s="2"/>
       <c r="R66" s="5"/>
       <c r="S66" s="5"/>
-      <c r="T66" s="2"/>
-      <c r="U66" s="5"/>
-      <c r="V66" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T66" s="5"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="5"/>
       <c r="W66" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X66" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="X66" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y66" s="5" t="s">
         <v>46</v>
       </c>
@@ -7431,20 +7624,23 @@
         <v>46</v>
       </c>
       <c r="AB66" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC66" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD66" s="5"/>
-      <c r="AE66" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF66" s="5"/>
+      <c r="AD66" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE66" s="5"/>
+      <c r="AF66" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG66" s="5"/>
-      <c r="AH66" s="2"/>
+      <c r="AH66" s="5"/>
+      <c r="AI66" s="2"/>
     </row>
-    <row r="67" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>136</v>
       </c>
@@ -7488,21 +7684,21 @@
       <c r="O67" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="5"/>
+      <c r="P67" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q67" s="2"/>
       <c r="R67" s="5"/>
       <c r="S67" s="5"/>
-      <c r="T67" s="2"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T67" s="5"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="5"/>
       <c r="W67" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X67" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="X67" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y67" s="5" t="s">
         <v>46</v>
       </c>
@@ -7513,20 +7709,23 @@
         <v>46</v>
       </c>
       <c r="AB67" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC67" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="AC67" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD67" s="5"/>
-      <c r="AE67" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF67" s="5"/>
+      <c r="AD67" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE67" s="5"/>
+      <c r="AF67" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG67" s="5"/>
-      <c r="AH67" s="2"/>
+      <c r="AH67" s="5"/>
+      <c r="AI67" s="2"/>
     </row>
-    <row r="68" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>139</v>
       </c>
@@ -7570,33 +7769,33 @@
       <c r="O68" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P68" s="2">
+      <c r="P68" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q68" s="2">
         <v>43935</v>
       </c>
-      <c r="Q68" s="5" t="s">
+      <c r="R68" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="R68" s="5" t="s">
+      <c r="S68" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="S68" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T68" s="2">
+      <c r="T68" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U68" s="2">
         <v>43942</v>
       </c>
-      <c r="U68" s="5" t="s">
+      <c r="V68" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="V68" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="W68" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X68" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="X68" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y68" s="5" t="s">
         <v>43</v>
       </c>
@@ -7607,20 +7806,23 @@
         <v>43</v>
       </c>
       <c r="AB68" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC68" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="AC68" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD68" s="5"/>
-      <c r="AE68" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF68" s="5"/>
+      <c r="AD68" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE68" s="5"/>
+      <c r="AF68" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG68" s="5"/>
-      <c r="AH68" s="2"/>
+      <c r="AH68" s="5"/>
+      <c r="AI68" s="2"/>
     </row>
-    <row r="69" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>141</v>
       </c>
@@ -7664,21 +7866,21 @@
       <c r="O69" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="5"/>
+      <c r="P69" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q69" s="2"/>
       <c r="R69" s="5"/>
       <c r="S69" s="5"/>
-      <c r="T69" s="2"/>
-      <c r="U69" s="5"/>
-      <c r="V69" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W69" s="4" t="s">
+      <c r="T69" s="5"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X69" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X69" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y69" s="5" t="s">
         <v>46</v>
       </c>
@@ -7686,23 +7888,26 @@
         <v>46</v>
       </c>
       <c r="AA69" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB69" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC69" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC69" s="5" t="s">
+      <c r="AD69" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AD69" s="5"/>
-      <c r="AE69" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF69" s="5"/>
+      <c r="AE69" s="5"/>
+      <c r="AF69" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG69" s="5"/>
-      <c r="AH69" s="2"/>
+      <c r="AH69" s="5"/>
+      <c r="AI69" s="2"/>
     </row>
-    <row r="70" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>142</v>
       </c>
@@ -7746,21 +7951,21 @@
       <c r="O70" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="5"/>
+      <c r="P70" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q70" s="2"/>
       <c r="R70" s="5"/>
       <c r="S70" s="5"/>
-      <c r="T70" s="2"/>
-      <c r="U70" s="5"/>
-      <c r="V70" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T70" s="5"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="5"/>
       <c r="W70" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X70" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X70" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y70" s="5" t="s">
         <v>46</v>
       </c>
@@ -7771,20 +7976,23 @@
         <v>46</v>
       </c>
       <c r="AB70" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC70" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD70" s="5"/>
-      <c r="AE70" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF70" s="5"/>
+      <c r="AD70" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE70" s="5"/>
+      <c r="AF70" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG70" s="5"/>
-      <c r="AH70" s="2"/>
+      <c r="AH70" s="5"/>
+      <c r="AI70" s="2"/>
     </row>
-    <row r="71" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>143</v>
       </c>
@@ -7828,21 +8036,21 @@
       <c r="O71" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="5"/>
+      <c r="P71" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q71" s="2"/>
       <c r="R71" s="5"/>
       <c r="S71" s="5"/>
-      <c r="T71" s="2"/>
-      <c r="U71" s="5"/>
-      <c r="V71" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W71" s="4" t="s">
+      <c r="T71" s="5"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X71" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X71" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y71" s="5" t="s">
         <v>46</v>
       </c>
@@ -7853,20 +8061,23 @@
         <v>46</v>
       </c>
       <c r="AB71" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC71" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AC71" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD71" s="5"/>
-      <c r="AE71" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF71" s="5"/>
+      <c r="AD71" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE71" s="5"/>
+      <c r="AF71" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG71" s="5"/>
-      <c r="AH71" s="2"/>
+      <c r="AH71" s="5"/>
+      <c r="AI71" s="2"/>
     </row>
-    <row r="72" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>145</v>
       </c>
@@ -7910,21 +8121,21 @@
       <c r="O72" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="5"/>
+      <c r="P72" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q72" s="2"/>
       <c r="R72" s="5"/>
       <c r="S72" s="5"/>
-      <c r="T72" s="2"/>
-      <c r="U72" s="5"/>
-      <c r="V72" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W72" s="4" t="s">
+      <c r="T72" s="5"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="5"/>
+      <c r="W72" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X72" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="X72" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y72" s="5" t="s">
         <v>46</v>
       </c>
@@ -7932,25 +8143,28 @@
         <v>46</v>
       </c>
       <c r="AA72" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB72" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC72" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="AC72" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD72" s="5"/>
-      <c r="AE72" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AD72" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE72" s="5"/>
       <c r="AF72" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG72" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AG72" s="5"/>
-      <c r="AH72" s="2"/>
+      <c r="AH72" s="5"/>
+      <c r="AI72" s="2"/>
     </row>
-    <row r="73" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>146</v>
       </c>
@@ -7994,21 +8208,21 @@
       <c r="O73" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="5"/>
+      <c r="P73" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q73" s="2"/>
       <c r="R73" s="5"/>
       <c r="S73" s="5"/>
-      <c r="T73" s="2"/>
-      <c r="U73" s="5"/>
-      <c r="V73" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W73" s="4" t="s">
+      <c r="T73" s="5"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="5"/>
+      <c r="W73" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X73" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="X73" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y73" s="5" t="s">
         <v>46</v>
       </c>
@@ -8019,20 +8233,23 @@
         <v>46</v>
       </c>
       <c r="AB73" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC73" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD73" s="5"/>
-      <c r="AE73" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF73" s="5"/>
+      <c r="AD73" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE73" s="5"/>
+      <c r="AF73" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG73" s="5"/>
-      <c r="AH73" s="2"/>
+      <c r="AH73" s="5"/>
+      <c r="AI73" s="2"/>
     </row>
-    <row r="74" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>149</v>
       </c>
@@ -8076,45 +8293,48 @@
       <c r="O74" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="5"/>
+      <c r="P74" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q74" s="2"/>
       <c r="R74" s="5"/>
       <c r="S74" s="5"/>
-      <c r="T74" s="2"/>
-      <c r="U74" s="5"/>
-      <c r="V74" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W74" s="4" t="s">
+      <c r="T74" s="5"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X74" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="X74" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y74" s="5" t="s">
         <v>46</v>
       </c>
       <c r="Z74" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AA74" s="5" t="s">
         <v>43</v>
       </c>
       <c r="AB74" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC74" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD74" s="5"/>
-      <c r="AE74" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF74" s="5"/>
+      <c r="AD74" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE74" s="5"/>
+      <c r="AF74" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG74" s="5"/>
-      <c r="AH74" s="2"/>
+      <c r="AH74" s="5"/>
+      <c r="AI74" s="2"/>
     </row>
-    <row r="75" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>150</v>
       </c>
@@ -8158,21 +8378,21 @@
       <c r="O75" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="5"/>
+      <c r="P75" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q75" s="2"/>
       <c r="R75" s="5"/>
       <c r="S75" s="5"/>
-      <c r="T75" s="2"/>
-      <c r="U75" s="5"/>
-      <c r="V75" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W75" s="4" t="s">
+      <c r="T75" s="5"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X75" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="X75" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y75" s="5" t="s">
         <v>46</v>
       </c>
@@ -8180,23 +8400,26 @@
         <v>46</v>
       </c>
       <c r="AA75" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB75" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC75" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD75" s="5"/>
-      <c r="AE75" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF75" s="5"/>
+      <c r="AD75" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE75" s="5"/>
+      <c r="AF75" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG75" s="5"/>
-      <c r="AH75" s="2"/>
+      <c r="AH75" s="5"/>
+      <c r="AI75" s="2"/>
     </row>
-    <row r="76" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>152</v>
       </c>
@@ -8240,57 +8463,60 @@
       <c r="O76" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P76" s="2">
+      <c r="P76" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q76" s="2">
         <v>43936</v>
       </c>
-      <c r="Q76" s="5" t="s">
+      <c r="R76" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R76" s="5" t="s">
+      <c r="S76" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="S76" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T76" s="2">
+      <c r="T76" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U76" s="2">
         <v>43951</v>
       </c>
-      <c r="U76" s="5" t="s">
+      <c r="V76" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="V76" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="W76" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X76" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X76" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y76" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Z76" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA76" s="5" t="s">
         <v>46</v>
       </c>
       <c r="AB76" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC76" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD76" s="5"/>
-      <c r="AE76" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF76" s="5"/>
+      <c r="AD76" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE76" s="5"/>
+      <c r="AF76" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG76" s="5"/>
-      <c r="AH76" s="2"/>
+      <c r="AH76" s="5"/>
+      <c r="AI76" s="2"/>
     </row>
-    <row r="77" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>153</v>
       </c>
@@ -8334,45 +8560,48 @@
       <c r="O77" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="5"/>
+      <c r="P77" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q77" s="2"/>
       <c r="R77" s="5"/>
       <c r="S77" s="5"/>
-      <c r="T77" s="2"/>
-      <c r="U77" s="5"/>
-      <c r="V77" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T77" s="5"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="5"/>
       <c r="W77" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X77" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X77" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y77" s="5" t="s">
         <v>43</v>
       </c>
       <c r="Z77" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA77" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB77" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC77" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD77" s="5"/>
-      <c r="AE77" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF77" s="5"/>
+      <c r="AD77" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE77" s="5"/>
+      <c r="AF77" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG77" s="5"/>
-      <c r="AH77" s="2"/>
+      <c r="AH77" s="5"/>
+      <c r="AI77" s="2"/>
     </row>
-    <row r="78" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>155</v>
       </c>
@@ -8416,23 +8645,23 @@
       <c r="O78" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="5"/>
+      <c r="P78" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q78" s="2"/>
       <c r="R78" s="5"/>
       <c r="S78" s="5"/>
-      <c r="T78" s="2"/>
-      <c r="U78" s="5"/>
-      <c r="V78" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W78" s="4" t="s">
+      <c r="T78" s="5"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="5"/>
+      <c r="W78" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X78" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="X78" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y78" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z78" s="5" t="s">
         <v>46</v>
@@ -8441,20 +8670,23 @@
         <v>46</v>
       </c>
       <c r="AB78" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC78" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD78" s="5"/>
-      <c r="AE78" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF78" s="5"/>
+      <c r="AD78" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE78" s="5"/>
+      <c r="AF78" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG78" s="5"/>
-      <c r="AH78" s="2"/>
+      <c r="AH78" s="5"/>
+      <c r="AI78" s="2"/>
     </row>
-    <row r="79" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>156</v>
       </c>
@@ -8498,33 +8730,33 @@
       <c r="O79" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P79" s="2">
+      <c r="P79" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q79" s="2">
         <v>43913</v>
       </c>
-      <c r="Q79" s="5" t="s">
+      <c r="R79" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="R79" s="5" t="s">
+      <c r="S79" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="S79" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T79" s="2">
+      <c r="T79" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U79" s="2">
         <v>43921</v>
       </c>
-      <c r="U79" s="5" t="s">
+      <c r="V79" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="V79" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W79" s="4" t="s">
+      <c r="W79" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X79" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="X79" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y79" s="5" t="s">
         <v>46</v>
       </c>
@@ -8535,20 +8767,23 @@
         <v>46</v>
       </c>
       <c r="AB79" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC79" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD79" s="5"/>
-      <c r="AE79" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF79" s="5"/>
+      <c r="AD79" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE79" s="5"/>
+      <c r="AF79" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG79" s="5"/>
-      <c r="AH79" s="2"/>
+      <c r="AH79" s="5"/>
+      <c r="AI79" s="2"/>
     </row>
-    <row r="80" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>157</v>
       </c>
@@ -8592,21 +8827,21 @@
       <c r="O80" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="5"/>
+      <c r="P80" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q80" s="2"/>
       <c r="R80" s="5"/>
       <c r="S80" s="5"/>
-      <c r="T80" s="2"/>
-      <c r="U80" s="5"/>
-      <c r="V80" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T80" s="5"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="5"/>
       <c r="W80" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X80" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X80" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y80" s="5" t="s">
         <v>46</v>
       </c>
@@ -8617,20 +8852,23 @@
         <v>46</v>
       </c>
       <c r="AB80" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC80" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD80" s="5"/>
-      <c r="AE80" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF80" s="5"/>
+      <c r="AD80" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE80" s="5"/>
+      <c r="AF80" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG80" s="5"/>
-      <c r="AH80" s="2"/>
+      <c r="AH80" s="5"/>
+      <c r="AI80" s="2"/>
     </row>
-    <row r="81" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>158</v>
       </c>
@@ -8674,21 +8912,21 @@
       <c r="O81" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="5"/>
+      <c r="P81" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q81" s="2"/>
       <c r="R81" s="5"/>
       <c r="S81" s="5"/>
-      <c r="T81" s="2"/>
-      <c r="U81" s="5"/>
-      <c r="V81" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T81" s="5"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="5"/>
       <c r="W81" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X81" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="X81" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y81" s="5" t="s">
         <v>46</v>
       </c>
@@ -8699,20 +8937,23 @@
         <v>46</v>
       </c>
       <c r="AB81" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC81" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD81" s="5"/>
-      <c r="AE81" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF81" s="5"/>
+      <c r="AD81" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE81" s="5"/>
+      <c r="AF81" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG81" s="5"/>
-      <c r="AH81" s="2"/>
+      <c r="AH81" s="5"/>
+      <c r="AI81" s="2"/>
     </row>
-    <row r="82" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>159</v>
       </c>
@@ -8756,21 +8997,21 @@
       <c r="O82" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="5"/>
+      <c r="P82" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q82" s="2"/>
       <c r="R82" s="5"/>
       <c r="S82" s="5"/>
-      <c r="T82" s="2"/>
-      <c r="U82" s="5"/>
-      <c r="V82" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W82" s="4" t="s">
+      <c r="T82" s="5"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X82" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="X82" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y82" s="5" t="s">
         <v>46</v>
       </c>
@@ -8781,20 +9022,23 @@
         <v>46</v>
       </c>
       <c r="AB82" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC82" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD82" s="5"/>
-      <c r="AE82" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF82" s="5"/>
+      <c r="AD82" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE82" s="5"/>
+      <c r="AF82" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG82" s="5"/>
-      <c r="AH82" s="2"/>
+      <c r="AH82" s="5"/>
+      <c r="AI82" s="2"/>
     </row>
-    <row r="83" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>160</v>
       </c>
@@ -8838,21 +9082,21 @@
       <c r="O83" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="5"/>
+      <c r="P83" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q83" s="2"/>
       <c r="R83" s="5"/>
       <c r="S83" s="5"/>
-      <c r="T83" s="2"/>
-      <c r="U83" s="5"/>
-      <c r="V83" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T83" s="5"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="5"/>
       <c r="W83" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X83" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X83" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y83" s="5" t="s">
         <v>46</v>
       </c>
@@ -8863,20 +9107,23 @@
         <v>46</v>
       </c>
       <c r="AB83" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC83" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD83" s="5"/>
-      <c r="AE83" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF83" s="5"/>
+      <c r="AD83" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE83" s="5"/>
+      <c r="AF83" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG83" s="5"/>
-      <c r="AH83" s="2"/>
+      <c r="AH83" s="5"/>
+      <c r="AI83" s="2"/>
     </row>
-    <row r="84" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>161</v>
       </c>
@@ -8920,21 +9167,21 @@
       <c r="O84" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="5"/>
+      <c r="P84" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q84" s="2"/>
       <c r="R84" s="5"/>
       <c r="S84" s="5"/>
-      <c r="T84" s="2"/>
-      <c r="U84" s="5"/>
-      <c r="V84" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T84" s="5"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="5"/>
       <c r="W84" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X84" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="X84" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y84" s="5" t="s">
         <v>46</v>
       </c>
@@ -8945,20 +9192,23 @@
         <v>46</v>
       </c>
       <c r="AB84" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC84" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD84" s="5"/>
-      <c r="AE84" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF84" s="5"/>
+      <c r="AD84" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE84" s="5"/>
+      <c r="AF84" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG84" s="5"/>
-      <c r="AH84" s="2"/>
+      <c r="AH84" s="5"/>
+      <c r="AI84" s="2"/>
     </row>
-    <row r="85" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>162</v>
       </c>
@@ -9002,21 +9252,21 @@
       <c r="O85" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" s="5"/>
+      <c r="P85" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q85" s="2"/>
       <c r="R85" s="5"/>
       <c r="S85" s="5"/>
-      <c r="T85" s="2"/>
-      <c r="U85" s="5"/>
-      <c r="V85" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T85" s="5"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="5"/>
       <c r="W85" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X85" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="X85" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y85" s="5" t="s">
         <v>46</v>
       </c>
@@ -9027,20 +9277,23 @@
         <v>46</v>
       </c>
       <c r="AB85" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC85" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD85" s="5"/>
-      <c r="AE85" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF85" s="5"/>
+      <c r="AD85" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE85" s="5"/>
+      <c r="AF85" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG85" s="5"/>
-      <c r="AH85" s="2"/>
+      <c r="AH85" s="5"/>
+      <c r="AI85" s="2"/>
     </row>
-    <row r="86" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>163</v>
       </c>
@@ -9084,21 +9337,21 @@
       <c r="O86" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" s="5"/>
+      <c r="P86" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q86" s="2"/>
       <c r="R86" s="5"/>
       <c r="S86" s="5"/>
-      <c r="T86" s="2"/>
-      <c r="U86" s="5"/>
-      <c r="V86" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T86" s="5"/>
+      <c r="U86" s="2"/>
+      <c r="V86" s="5"/>
       <c r="W86" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X86" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X86" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y86" s="5" t="s">
         <v>46</v>
       </c>
@@ -9109,20 +9362,23 @@
         <v>46</v>
       </c>
       <c r="AB86" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC86" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC86" s="5" t="s">
+      <c r="AD86" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD86" s="5"/>
-      <c r="AE86" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF86" s="5"/>
+      <c r="AE86" s="5"/>
+      <c r="AF86" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG86" s="5"/>
-      <c r="AH86" s="2"/>
+      <c r="AH86" s="5"/>
+      <c r="AI86" s="2"/>
     </row>
-    <row r="87" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>164</v>
       </c>
@@ -9166,21 +9422,21 @@
       <c r="O87" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="5"/>
+      <c r="P87" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q87" s="2"/>
       <c r="R87" s="5"/>
       <c r="S87" s="5"/>
-      <c r="T87" s="2"/>
-      <c r="U87" s="5"/>
-      <c r="V87" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T87" s="5"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="5"/>
       <c r="W87" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X87" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X87" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y87" s="5" t="s">
         <v>46</v>
       </c>
@@ -9191,20 +9447,23 @@
         <v>46</v>
       </c>
       <c r="AB87" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC87" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC87" s="5" t="s">
+      <c r="AD87" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD87" s="5"/>
-      <c r="AE87" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF87" s="5"/>
+      <c r="AE87" s="5"/>
+      <c r="AF87" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG87" s="5"/>
-      <c r="AH87" s="2"/>
+      <c r="AH87" s="5"/>
+      <c r="AI87" s="2"/>
     </row>
-    <row r="88" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>165</v>
       </c>
@@ -9248,21 +9507,21 @@
       <c r="O88" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="5"/>
+      <c r="P88" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q88" s="2"/>
       <c r="R88" s="5"/>
       <c r="S88" s="5"/>
-      <c r="T88" s="2"/>
-      <c r="U88" s="5"/>
-      <c r="V88" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T88" s="5"/>
+      <c r="U88" s="2"/>
+      <c r="V88" s="5"/>
       <c r="W88" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X88" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X88" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y88" s="5" t="s">
         <v>46</v>
       </c>
@@ -9273,20 +9532,23 @@
         <v>46</v>
       </c>
       <c r="AB88" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC88" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD88" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AD88" s="5"/>
-      <c r="AE88" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF88" s="5"/>
+      <c r="AE88" s="5"/>
+      <c r="AF88" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG88" s="5"/>
-      <c r="AH88" s="2"/>
+      <c r="AH88" s="5"/>
+      <c r="AI88" s="2"/>
     </row>
-    <row r="89" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>166</v>
       </c>
@@ -9330,21 +9592,21 @@
       <c r="O89" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" s="5"/>
+      <c r="P89" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q89" s="2"/>
       <c r="R89" s="5"/>
       <c r="S89" s="5"/>
-      <c r="T89" s="2"/>
-      <c r="U89" s="5"/>
-      <c r="V89" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T89" s="5"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="5"/>
       <c r="W89" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X89" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X89" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y89" s="5" t="s">
         <v>46</v>
       </c>
@@ -9352,23 +9614,26 @@
         <v>46</v>
       </c>
       <c r="AA89" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB89" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC89" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AC89" s="5" t="s">
+      <c r="AD89" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD89" s="5"/>
-      <c r="AE89" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF89" s="5"/>
+      <c r="AE89" s="5"/>
+      <c r="AF89" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG89" s="5"/>
-      <c r="AH89" s="2"/>
+      <c r="AH89" s="5"/>
+      <c r="AI89" s="2"/>
     </row>
-    <row r="90" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>167</v>
       </c>
@@ -9412,21 +9677,21 @@
       <c r="O90" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="5"/>
+      <c r="P90" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q90" s="2"/>
       <c r="R90" s="5"/>
       <c r="S90" s="5"/>
-      <c r="T90" s="2"/>
-      <c r="U90" s="5"/>
-      <c r="V90" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T90" s="5"/>
+      <c r="U90" s="2"/>
+      <c r="V90" s="5"/>
       <c r="W90" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X90" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X90" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y90" s="5" t="s">
         <v>46</v>
       </c>
@@ -9437,20 +9702,23 @@
         <v>46</v>
       </c>
       <c r="AB90" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC90" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC90" s="5" t="s">
+      <c r="AD90" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD90" s="5"/>
-      <c r="AE90" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF90" s="5"/>
+      <c r="AE90" s="5"/>
+      <c r="AF90" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG90" s="5"/>
-      <c r="AH90" s="2"/>
+      <c r="AH90" s="5"/>
+      <c r="AI90" s="2"/>
     </row>
-    <row r="91" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>168</v>
       </c>
@@ -9494,21 +9762,21 @@
       <c r="O91" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="5"/>
+      <c r="P91" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q91" s="2"/>
       <c r="R91" s="5"/>
       <c r="S91" s="5"/>
-      <c r="T91" s="2"/>
-      <c r="U91" s="5"/>
-      <c r="V91" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="T91" s="5"/>
+      <c r="U91" s="2"/>
+      <c r="V91" s="5"/>
       <c r="W91" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X91" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X91" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y91" s="5" t="s">
         <v>46</v>
       </c>
@@ -9519,20 +9787,23 @@
         <v>46</v>
       </c>
       <c r="AB91" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC91" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC91" s="5" t="s">
+      <c r="AD91" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD91" s="5"/>
-      <c r="AE91" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF91" s="5"/>
+      <c r="AE91" s="5"/>
+      <c r="AF91" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG91" s="5"/>
-      <c r="AH91" s="2"/>
+      <c r="AH91" s="5"/>
+      <c r="AI91" s="2"/>
     </row>
-    <row r="92" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>169</v>
       </c>
@@ -9576,21 +9847,21 @@
       <c r="O92" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="5"/>
+      <c r="P92" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q92" s="2"/>
       <c r="R92" s="5"/>
       <c r="S92" s="5"/>
-      <c r="T92" s="2"/>
-      <c r="U92" s="5"/>
-      <c r="V92" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T92" s="5"/>
+      <c r="U92" s="2"/>
+      <c r="V92" s="5"/>
       <c r="W92" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X92" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X92" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y92" s="5" t="s">
         <v>46</v>
       </c>
@@ -9601,20 +9872,23 @@
         <v>46</v>
       </c>
       <c r="AB92" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC92" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="AC92" s="5" t="s">
+      <c r="AD92" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD92" s="5"/>
-      <c r="AE92" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF92" s="5"/>
+      <c r="AE92" s="5"/>
+      <c r="AF92" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG92" s="5"/>
-      <c r="AH92" s="2"/>
+      <c r="AH92" s="5"/>
+      <c r="AI92" s="2"/>
     </row>
-    <row r="93" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>170</v>
       </c>
@@ -9658,21 +9932,21 @@
       <c r="O93" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="5"/>
+      <c r="P93" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q93" s="2"/>
       <c r="R93" s="5"/>
       <c r="S93" s="5"/>
-      <c r="T93" s="2"/>
-      <c r="U93" s="5"/>
-      <c r="V93" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T93" s="5"/>
+      <c r="U93" s="2"/>
+      <c r="V93" s="5"/>
       <c r="W93" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X93" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X93" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y93" s="5" t="s">
         <v>46</v>
       </c>
@@ -9683,20 +9957,23 @@
         <v>46</v>
       </c>
       <c r="AB93" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC93" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC93" s="5" t="s">
+      <c r="AD93" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD93" s="5"/>
-      <c r="AE93" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF93" s="5"/>
+      <c r="AE93" s="5"/>
+      <c r="AF93" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG93" s="5"/>
-      <c r="AH93" s="2"/>
+      <c r="AH93" s="5"/>
+      <c r="AI93" s="2"/>
     </row>
-    <row r="94" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>171</v>
       </c>
@@ -9740,21 +10017,21 @@
       <c r="O94" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" s="5"/>
+      <c r="P94" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q94" s="2"/>
       <c r="R94" s="5"/>
       <c r="S94" s="5"/>
-      <c r="T94" s="2"/>
-      <c r="U94" s="5"/>
-      <c r="V94" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T94" s="5"/>
+      <c r="U94" s="2"/>
+      <c r="V94" s="5"/>
       <c r="W94" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X94" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X94" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y94" s="5" t="s">
         <v>46</v>
       </c>
@@ -9765,20 +10042,23 @@
         <v>46</v>
       </c>
       <c r="AB94" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC94" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC94" s="5" t="s">
+      <c r="AD94" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD94" s="5"/>
-      <c r="AE94" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF94" s="5"/>
+      <c r="AE94" s="5"/>
+      <c r="AF94" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG94" s="5"/>
-      <c r="AH94" s="2"/>
+      <c r="AH94" s="5"/>
+      <c r="AI94" s="2"/>
     </row>
-    <row r="95" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>172</v>
       </c>
@@ -9822,21 +10102,21 @@
       <c r="O95" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" s="5"/>
+      <c r="P95" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q95" s="2"/>
       <c r="R95" s="5"/>
       <c r="S95" s="5"/>
-      <c r="T95" s="2"/>
-      <c r="U95" s="5"/>
-      <c r="V95" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T95" s="5"/>
+      <c r="U95" s="2"/>
+      <c r="V95" s="5"/>
       <c r="W95" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X95" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X95" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y95" s="5" t="s">
         <v>46</v>
       </c>
@@ -9847,22 +10127,25 @@
         <v>46</v>
       </c>
       <c r="AB95" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC95" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC95" s="5" t="s">
+      <c r="AD95" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD95" s="5"/>
-      <c r="AE95" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AE95" s="5"/>
       <c r="AF95" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG95" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AG95" s="5"/>
-      <c r="AH95" s="2"/>
+      <c r="AH95" s="5"/>
+      <c r="AI95" s="2"/>
     </row>
-    <row r="96" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>173</v>
       </c>
@@ -9906,21 +10189,21 @@
       <c r="O96" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" s="5"/>
+      <c r="P96" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q96" s="2"/>
       <c r="R96" s="5"/>
       <c r="S96" s="5"/>
-      <c r="T96" s="2"/>
-      <c r="U96" s="5"/>
-      <c r="V96" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T96" s="5"/>
+      <c r="U96" s="2"/>
+      <c r="V96" s="5"/>
       <c r="W96" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X96" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X96" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y96" s="5" t="s">
         <v>46</v>
       </c>
@@ -9931,20 +10214,23 @@
         <v>46</v>
       </c>
       <c r="AB96" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC96" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD96" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD96" s="5"/>
-      <c r="AE96" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF96" s="5"/>
+      <c r="AE96" s="5"/>
+      <c r="AF96" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG96" s="5"/>
-      <c r="AH96" s="2"/>
+      <c r="AH96" s="5"/>
+      <c r="AI96" s="2"/>
     </row>
-    <row r="97" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>174</v>
       </c>
@@ -9988,21 +10274,21 @@
       <c r="O97" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="5"/>
+      <c r="P97" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q97" s="2"/>
       <c r="R97" s="5"/>
       <c r="S97" s="5"/>
-      <c r="T97" s="2"/>
-      <c r="U97" s="5"/>
-      <c r="V97" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T97" s="5"/>
+      <c r="U97" s="2"/>
+      <c r="V97" s="5"/>
       <c r="W97" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X97" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X97" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y97" s="5" t="s">
         <v>46</v>
       </c>
@@ -10013,20 +10299,23 @@
         <v>46</v>
       </c>
       <c r="AB97" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC97" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AC97" s="5" t="s">
+      <c r="AD97" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD97" s="5"/>
-      <c r="AE97" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF97" s="5"/>
+      <c r="AE97" s="5"/>
+      <c r="AF97" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG97" s="5"/>
-      <c r="AH97" s="2"/>
+      <c r="AH97" s="5"/>
+      <c r="AI97" s="2"/>
     </row>
-    <row r="98" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>175</v>
       </c>
@@ -10070,21 +10359,21 @@
       <c r="O98" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="5"/>
+      <c r="P98" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q98" s="2"/>
       <c r="R98" s="5"/>
       <c r="S98" s="5"/>
-      <c r="T98" s="2"/>
-      <c r="U98" s="5"/>
-      <c r="V98" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T98" s="5"/>
+      <c r="U98" s="2"/>
+      <c r="V98" s="5"/>
       <c r="W98" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X98" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X98" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y98" s="5" t="s">
         <v>46</v>
       </c>
@@ -10095,22 +10384,25 @@
         <v>46</v>
       </c>
       <c r="AB98" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC98" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC98" s="5" t="s">
+      <c r="AD98" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD98" s="5"/>
-      <c r="AE98" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AE98" s="5"/>
       <c r="AF98" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG98" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AG98" s="5"/>
-      <c r="AH98" s="2"/>
+      <c r="AH98" s="5"/>
+      <c r="AI98" s="2"/>
     </row>
-    <row r="99" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>176</v>
       </c>
@@ -10154,21 +10446,21 @@
       <c r="O99" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" s="5"/>
+      <c r="P99" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q99" s="2"/>
       <c r="R99" s="5"/>
       <c r="S99" s="5"/>
-      <c r="T99" s="2"/>
-      <c r="U99" s="5"/>
-      <c r="V99" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T99" s="5"/>
+      <c r="U99" s="2"/>
+      <c r="V99" s="5"/>
       <c r="W99" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X99" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X99" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y99" s="5" t="s">
         <v>46</v>
       </c>
@@ -10179,20 +10471,23 @@
         <v>46</v>
       </c>
       <c r="AB99" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC99" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC99" s="5" t="s">
+      <c r="AD99" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD99" s="5"/>
-      <c r="AE99" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF99" s="5"/>
+      <c r="AE99" s="5"/>
+      <c r="AF99" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG99" s="5"/>
-      <c r="AH99" s="2"/>
+      <c r="AH99" s="5"/>
+      <c r="AI99" s="2"/>
     </row>
-    <row r="100" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>177</v>
       </c>
@@ -10236,27 +10531,27 @@
       <c r="O100" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P100" s="2">
+      <c r="P100" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q100" s="2">
         <v>43936</v>
       </c>
-      <c r="Q100" s="5" t="s">
+      <c r="R100" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="R100" s="5" t="s">
+      <c r="S100" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="S100" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T100" s="2"/>
-      <c r="U100" s="5"/>
+      <c r="T100" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U100" s="2"/>
       <c r="V100" s="5"/>
-      <c r="W100" s="4" t="s">
+      <c r="W100" s="5"/>
+      <c r="X100" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="X100" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y100" s="5" t="s">
         <v>43</v>
       </c>
@@ -10267,20 +10562,23 @@
         <v>43</v>
       </c>
       <c r="AB100" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC100" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD100" s="5"/>
-      <c r="AE100" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF100" s="5"/>
+      <c r="AD100" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE100" s="5"/>
+      <c r="AF100" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG100" s="5"/>
-      <c r="AH100" s="2"/>
+      <c r="AH100" s="5"/>
+      <c r="AI100" s="2"/>
     </row>
-    <row r="101" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>178</v>
       </c>
@@ -10324,21 +10622,21 @@
       <c r="O101" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" s="5"/>
+      <c r="P101" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q101" s="2"/>
       <c r="R101" s="5"/>
       <c r="S101" s="5"/>
-      <c r="T101" s="2"/>
-      <c r="U101" s="5"/>
-      <c r="V101" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T101" s="5"/>
+      <c r="U101" s="2"/>
+      <c r="V101" s="5"/>
       <c r="W101" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X101" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X101" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y101" s="5" t="s">
         <v>46</v>
       </c>
@@ -10349,20 +10647,23 @@
         <v>46</v>
       </c>
       <c r="AB101" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC101" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC101" s="5" t="s">
+      <c r="AD101" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD101" s="5"/>
-      <c r="AE101" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF101" s="5"/>
+      <c r="AE101" s="5"/>
+      <c r="AF101" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG101" s="5"/>
-      <c r="AH101" s="2"/>
+      <c r="AH101" s="5"/>
+      <c r="AI101" s="2"/>
     </row>
-    <row r="102" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>179</v>
       </c>
@@ -10406,21 +10707,21 @@
       <c r="O102" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" s="5"/>
+      <c r="P102" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q102" s="2"/>
       <c r="R102" s="5"/>
       <c r="S102" s="5"/>
-      <c r="T102" s="2"/>
-      <c r="U102" s="5"/>
-      <c r="V102" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T102" s="5"/>
+      <c r="U102" s="2"/>
+      <c r="V102" s="5"/>
       <c r="W102" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X102" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X102" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y102" s="5" t="s">
         <v>46</v>
       </c>
@@ -10431,20 +10732,23 @@
         <v>46</v>
       </c>
       <c r="AB102" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC102" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC102" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD102" s="5"/>
-      <c r="AE102" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF102" s="5"/>
+      <c r="AD102" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE102" s="5"/>
+      <c r="AF102" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG102" s="5"/>
-      <c r="AH102" s="2"/>
+      <c r="AH102" s="5"/>
+      <c r="AI102" s="2"/>
     </row>
-    <row r="103" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>180</v>
       </c>
@@ -10488,21 +10792,21 @@
       <c r="O103" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" s="5"/>
+      <c r="P103" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q103" s="2"/>
       <c r="R103" s="5"/>
       <c r="S103" s="5"/>
-      <c r="T103" s="2"/>
-      <c r="U103" s="5"/>
-      <c r="V103" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T103" s="5"/>
+      <c r="U103" s="2"/>
+      <c r="V103" s="5"/>
       <c r="W103" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X103" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X103" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y103" s="5" t="s">
         <v>46</v>
       </c>
@@ -10513,20 +10817,23 @@
         <v>46</v>
       </c>
       <c r="AB103" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC103" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD103" s="5"/>
-      <c r="AE103" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF103" s="5"/>
+      <c r="AD103" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE103" s="5"/>
+      <c r="AF103" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG103" s="5"/>
-      <c r="AH103" s="2"/>
+      <c r="AH103" s="5"/>
+      <c r="AI103" s="2"/>
     </row>
-    <row r="104" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>181</v>
       </c>
@@ -10570,21 +10877,21 @@
       <c r="O104" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" s="5"/>
+      <c r="P104" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q104" s="2"/>
       <c r="R104" s="5"/>
       <c r="S104" s="5"/>
-      <c r="T104" s="2"/>
-      <c r="U104" s="5"/>
-      <c r="V104" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T104" s="5"/>
+      <c r="U104" s="2"/>
+      <c r="V104" s="5"/>
       <c r="W104" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X104" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X104" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y104" s="5" t="s">
         <v>46</v>
       </c>
@@ -10595,20 +10902,23 @@
         <v>46</v>
       </c>
       <c r="AB104" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC104" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD104" s="5"/>
-      <c r="AE104" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF104" s="5"/>
+      <c r="AD104" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE104" s="5"/>
+      <c r="AF104" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG104" s="5"/>
-      <c r="AH104" s="2"/>
+      <c r="AH104" s="5"/>
+      <c r="AI104" s="2"/>
     </row>
-    <row r="105" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>182</v>
       </c>
@@ -10652,21 +10962,21 @@
       <c r="O105" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" s="5"/>
+      <c r="P105" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q105" s="2"/>
       <c r="R105" s="5"/>
       <c r="S105" s="5"/>
-      <c r="T105" s="2"/>
-      <c r="U105" s="5"/>
-      <c r="V105" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T105" s="5"/>
+      <c r="U105" s="2"/>
+      <c r="V105" s="5"/>
       <c r="W105" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X105" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X105" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y105" s="5" t="s">
         <v>46</v>
       </c>
@@ -10677,20 +10987,23 @@
         <v>46</v>
       </c>
       <c r="AB105" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC105" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC105" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD105" s="5"/>
-      <c r="AE105" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF105" s="5"/>
+      <c r="AD105" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE105" s="5"/>
+      <c r="AF105" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG105" s="5"/>
-      <c r="AH105" s="2"/>
+      <c r="AH105" s="5"/>
+      <c r="AI105" s="2"/>
     </row>
-    <row r="106" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>183</v>
       </c>
@@ -10734,21 +11047,21 @@
       <c r="O106" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" s="5"/>
+      <c r="P106" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q106" s="2"/>
       <c r="R106" s="5"/>
       <c r="S106" s="5"/>
-      <c r="T106" s="2"/>
-      <c r="U106" s="5"/>
-      <c r="V106" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T106" s="5"/>
+      <c r="U106" s="2"/>
+      <c r="V106" s="5"/>
       <c r="W106" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X106" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X106" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y106" s="5" t="s">
         <v>46</v>
       </c>
@@ -10759,20 +11072,23 @@
         <v>46</v>
       </c>
       <c r="AB106" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC106" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC106" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD106" s="5"/>
-      <c r="AE106" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF106" s="5"/>
+      <c r="AD106" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE106" s="5"/>
+      <c r="AF106" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG106" s="5"/>
-      <c r="AH106" s="2"/>
+      <c r="AH106" s="5"/>
+      <c r="AI106" s="2"/>
     </row>
-    <row r="107" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>184</v>
       </c>
@@ -10816,21 +11132,21 @@
       <c r="O107" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" s="5"/>
+      <c r="P107" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q107" s="2"/>
       <c r="R107" s="5"/>
       <c r="S107" s="5"/>
-      <c r="T107" s="2"/>
-      <c r="U107" s="5"/>
-      <c r="V107" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T107" s="5"/>
+      <c r="U107" s="2"/>
+      <c r="V107" s="5"/>
       <c r="W107" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X107" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X107" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y107" s="5" t="s">
         <v>46</v>
       </c>
@@ -10841,20 +11157,23 @@
         <v>46</v>
       </c>
       <c r="AB107" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC107" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="AC107" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD107" s="5"/>
-      <c r="AE107" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF107" s="5"/>
+      <c r="AD107" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE107" s="5"/>
+      <c r="AF107" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG107" s="5"/>
-      <c r="AH107" s="2"/>
+      <c r="AH107" s="5"/>
+      <c r="AI107" s="2"/>
     </row>
-    <row r="108" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>185</v>
       </c>
@@ -10898,21 +11217,21 @@
       <c r="O108" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P108" s="2"/>
-      <c r="Q108" s="5"/>
+      <c r="P108" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q108" s="2"/>
       <c r="R108" s="5"/>
       <c r="S108" s="5"/>
-      <c r="T108" s="2"/>
-      <c r="U108" s="5"/>
-      <c r="V108" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T108" s="5"/>
+      <c r="U108" s="2"/>
+      <c r="V108" s="5"/>
       <c r="W108" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X108" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X108" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y108" s="5" t="s">
         <v>46</v>
       </c>
@@ -10923,20 +11242,23 @@
         <v>46</v>
       </c>
       <c r="AB108" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC108" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC108" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD108" s="5"/>
-      <c r="AE108" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF108" s="5"/>
+      <c r="AD108" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE108" s="5"/>
+      <c r="AF108" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG108" s="5"/>
-      <c r="AH108" s="2"/>
+      <c r="AH108" s="5"/>
+      <c r="AI108" s="2"/>
     </row>
-    <row r="109" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>186</v>
       </c>
@@ -10980,21 +11302,21 @@
       <c r="O109" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P109" s="2"/>
-      <c r="Q109" s="5"/>
+      <c r="P109" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q109" s="2"/>
       <c r="R109" s="5"/>
       <c r="S109" s="5"/>
-      <c r="T109" s="2"/>
-      <c r="U109" s="5"/>
-      <c r="V109" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T109" s="5"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="5"/>
       <c r="W109" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X109" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X109" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y109" s="5" t="s">
         <v>46</v>
       </c>
@@ -11005,20 +11327,23 @@
         <v>46</v>
       </c>
       <c r="AB109" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC109" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="AC109" s="5" t="s">
+      <c r="AD109" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD109" s="5"/>
-      <c r="AE109" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF109" s="5"/>
+      <c r="AE109" s="5"/>
+      <c r="AF109" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG109" s="5"/>
-      <c r="AH109" s="2"/>
+      <c r="AH109" s="5"/>
+      <c r="AI109" s="2"/>
     </row>
-    <row r="110" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>187</v>
       </c>
@@ -11062,21 +11387,21 @@
       <c r="O110" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P110" s="2"/>
-      <c r="Q110" s="5"/>
+      <c r="P110" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q110" s="2"/>
       <c r="R110" s="5"/>
       <c r="S110" s="5"/>
-      <c r="T110" s="2"/>
-      <c r="U110" s="5"/>
-      <c r="V110" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T110" s="5"/>
+      <c r="U110" s="2"/>
+      <c r="V110" s="5"/>
       <c r="W110" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X110" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X110" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y110" s="5" t="s">
         <v>46</v>
       </c>
@@ -11087,20 +11412,23 @@
         <v>46</v>
       </c>
       <c r="AB110" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC110" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC110" s="5" t="s">
+      <c r="AD110" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AD110" s="5"/>
-      <c r="AE110" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF110" s="5"/>
+      <c r="AE110" s="5"/>
+      <c r="AF110" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG110" s="5"/>
-      <c r="AH110" s="2"/>
+      <c r="AH110" s="5"/>
+      <c r="AI110" s="2"/>
     </row>
-    <row r="111" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>188</v>
       </c>
@@ -11144,21 +11472,21 @@
       <c r="O111" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P111" s="2"/>
-      <c r="Q111" s="5"/>
+      <c r="P111" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q111" s="2"/>
       <c r="R111" s="5"/>
       <c r="S111" s="5"/>
-      <c r="T111" s="2"/>
-      <c r="U111" s="5"/>
-      <c r="V111" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T111" s="5"/>
+      <c r="U111" s="2"/>
+      <c r="V111" s="5"/>
       <c r="W111" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X111" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X111" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y111" s="5" t="s">
         <v>46</v>
       </c>
@@ -11169,20 +11497,23 @@
         <v>46</v>
       </c>
       <c r="AB111" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC111" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC111" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD111" s="5"/>
-      <c r="AE111" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF111" s="5"/>
+      <c r="AD111" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE111" s="5"/>
+      <c r="AF111" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG111" s="5"/>
-      <c r="AH111" s="2"/>
+      <c r="AH111" s="5"/>
+      <c r="AI111" s="2"/>
     </row>
-    <row r="112" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>189</v>
       </c>
@@ -11226,21 +11557,21 @@
       <c r="O112" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P112" s="2"/>
-      <c r="Q112" s="5"/>
+      <c r="P112" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q112" s="2"/>
       <c r="R112" s="5"/>
       <c r="S112" s="5"/>
-      <c r="T112" s="2"/>
-      <c r="U112" s="5"/>
-      <c r="V112" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="T112" s="5"/>
+      <c r="U112" s="2"/>
+      <c r="V112" s="5"/>
       <c r="W112" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X112" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X112" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y112" s="5" t="s">
         <v>46</v>
       </c>
@@ -11251,20 +11582,23 @@
         <v>46</v>
       </c>
       <c r="AB112" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC112" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC112" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD112" s="5"/>
-      <c r="AE112" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF112" s="5"/>
+      <c r="AD112" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE112" s="5"/>
+      <c r="AF112" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG112" s="5"/>
-      <c r="AH112" s="2"/>
+      <c r="AH112" s="5"/>
+      <c r="AI112" s="2"/>
     </row>
-    <row r="113" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>190</v>
       </c>
@@ -11308,43 +11642,46 @@
       <c r="O113" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P113" s="2"/>
-      <c r="Q113" s="5"/>
+      <c r="P113" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q113" s="2"/>
       <c r="R113" s="5"/>
       <c r="S113" s="5"/>
-      <c r="T113" s="2"/>
-      <c r="U113" s="5"/>
-      <c r="V113" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W113" s="4" t="s">
+      <c r="T113" s="5"/>
+      <c r="U113" s="2"/>
+      <c r="V113" s="5"/>
+      <c r="W113" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X113" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="X113" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Y113" s="5" t="s">
         <v>46</v>
       </c>
       <c r="Z113" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AA113" s="5" t="s">
         <v>43</v>
       </c>
       <c r="AB113" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC113" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AC113" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD113" s="5"/>
-      <c r="AE113" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF113" s="5"/>
+      <c r="AD113" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE113" s="5"/>
+      <c r="AF113" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AG113" s="5"/>
-      <c r="AH113" s="2"/>
+      <c r="AH113" s="5"/>
+      <c r="AI113" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
